--- a/capiq_data/in_process_data/IQ33926.xlsx
+++ b/capiq_data/in_process_data/IQ33926.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A892AD-ABDA-4621-9721-1BD58C8A1FB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC7AACF-8640-46DB-B9B0-E30265818475}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"54dda661-0b89-4ecb-a256-1989184e8721"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"1a80117a-3d2e-46df-8e3e-256648b7f94f"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -175,6 +175,123 @@
     <t>IQ_NI</t>
   </si>
   <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
+  </si>
+  <si>
+    <t>FQ42010</t>
+  </si>
+  <si>
+    <t>FQ12011</t>
+  </si>
+  <si>
+    <t>FQ22011</t>
+  </si>
+  <si>
     <t>FQ32011</t>
   </si>
   <si>
@@ -296,6 +413,9 @@
   </si>
   <si>
     <t>FQ32021</t>
+  </si>
+  <si>
+    <t>FQ42021</t>
   </si>
 </sst>
 </file>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40481</v>
+        <v>36925</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>121.378</v>
+        <v>45.246000000000002</v>
       </c>
       <c r="D2">
-        <v>1874.32</v>
+        <v>779.10699999999997</v>
       </c>
       <c r="E2">
-        <v>53.93</v>
+        <v>14.420999999999999</v>
       </c>
       <c r="F2">
-        <v>508.80700000000002</v>
+        <v>235.42400000000001</v>
       </c>
       <c r="G2">
-        <v>1904.8440000000001</v>
+        <v>631.06899999999996</v>
       </c>
       <c r="H2">
-        <v>2962.5889999999999</v>
+        <v>975.04700000000003</v>
       </c>
       <c r="I2">
-        <v>767.74099999999999</v>
+        <v>260.13799999999998</v>
       </c>
       <c r="J2">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,81 +892,81 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1247.6300000000001</v>
+        <v>434.065</v>
       </c>
       <c r="O2">
-        <v>1677.578</v>
+        <v>507.5</v>
       </c>
       <c r="P2">
-        <v>150.054</v>
+        <v>64</v>
       </c>
       <c r="Q2">
-        <v>-39.872999999999998</v>
+        <v>2.3959999999999999</v>
       </c>
       <c r="R2">
-        <v>40481</v>
+        <v>36925</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>8600</v>
       </c>
       <c r="T2">
-        <v>1285.011</v>
+        <v>467.54700000000003</v>
       </c>
       <c r="U2">
-        <v>732.798</v>
+        <v>37.154000000000003</v>
       </c>
       <c r="V2">
-        <v>121.92400000000001</v>
+        <v>69.33</v>
       </c>
       <c r="W2">
-        <v>-19.210999999999999</v>
+        <v>-3.0430000000000001</v>
       </c>
       <c r="X2">
-        <v>-102.70099999999999</v>
+        <v>-48.320999999999998</v>
       </c>
       <c r="Y2">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>2.4409999999999998</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>121.378</v>
+        <v>45.246000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40572</v>
+        <v>37016</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>161.79599999999999</v>
+        <v>34.676000000000002</v>
       </c>
       <c r="D3">
-        <v>2145.2420000000002</v>
+        <v>674.35900000000004</v>
       </c>
       <c r="E3">
-        <v>45.384</v>
+        <v>20.658000000000001</v>
       </c>
       <c r="F3">
-        <v>582.88699999999994</v>
+        <v>209.83</v>
       </c>
       <c r="G3">
-        <v>2043.239</v>
+        <v>688.18399999999997</v>
       </c>
       <c r="H3">
-        <v>3116.2040000000002</v>
+        <v>1034.626</v>
       </c>
       <c r="I3">
-        <v>714.05499999999995</v>
+        <v>278.125</v>
       </c>
       <c r="J3">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K3">
-        <v>53.4</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -855,81 +975,81 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1352.32</v>
+        <v>469.51799999999997</v>
       </c>
       <c r="O3">
-        <v>1783.5119999999999</v>
+        <v>560.88900000000001</v>
       </c>
       <c r="P3">
-        <v>203.4</v>
+        <v>90.8</v>
       </c>
       <c r="Q3">
-        <v>101.126</v>
+        <v>1.1279999999999999</v>
       </c>
       <c r="R3">
-        <v>40572</v>
+        <v>37016</v>
       </c>
       <c r="S3">
-        <v>14000</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>1332.692</v>
+        <v>473.73700000000002</v>
       </c>
       <c r="U3">
-        <v>833.92399999999998</v>
+        <v>38.281999999999996</v>
       </c>
       <c r="V3">
-        <v>246.30500000000001</v>
+        <v>30.184999999999999</v>
       </c>
       <c r="W3">
-        <v>-19.006</v>
+        <v>-3.4140000000000001</v>
       </c>
       <c r="X3">
-        <v>-97.373999999999995</v>
+        <v>-7.7350000000000003</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>1.1870000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>161.79599999999999</v>
+        <v>34.676000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40663</v>
+        <v>37107</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>172.97300000000001</v>
+        <v>35.372</v>
       </c>
       <c r="D4">
-        <v>2074.576</v>
+        <v>724.59100000000001</v>
       </c>
       <c r="E4">
-        <v>61.683</v>
+        <v>20.364000000000001</v>
       </c>
       <c r="F4">
-        <v>593.37</v>
+        <v>219.19800000000001</v>
       </c>
       <c r="G4">
-        <v>1997.241</v>
+        <v>694.22</v>
       </c>
       <c r="H4">
-        <v>3101.9940000000001</v>
+        <v>1047.021</v>
       </c>
       <c r="I4">
-        <v>742.6</v>
+        <v>247.03200000000001</v>
       </c>
       <c r="J4">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,81 +1058,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1238.7940000000001</v>
+        <v>450.42700000000002</v>
       </c>
       <c r="O4">
-        <v>1695.8879999999999</v>
+        <v>544.40599999999995</v>
       </c>
       <c r="P4">
-        <v>150</v>
+        <v>67.5</v>
       </c>
       <c r="Q4">
-        <v>-162.91900000000001</v>
+        <v>0.67400000000000004</v>
       </c>
       <c r="R4">
-        <v>40663</v>
+        <v>37107</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>1406.106</v>
+        <v>502.61500000000001</v>
       </c>
       <c r="U4">
-        <v>671.005</v>
+        <v>38.956000000000003</v>
       </c>
       <c r="V4">
-        <v>41.051000000000002</v>
+        <v>55.335000000000001</v>
       </c>
       <c r="W4">
-        <v>-25.905000000000001</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>-135.68799999999999</v>
+        <v>-32.862000000000002</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>1.8140000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>172.97300000000001</v>
+        <v>35.372</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40754</v>
+        <v>37198</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>148.27600000000001</v>
+        <v>35.027000000000001</v>
       </c>
       <c r="D5">
-        <v>2089.41</v>
+        <v>739.27200000000005</v>
       </c>
       <c r="E5">
-        <v>57.942999999999998</v>
+        <v>22.221</v>
       </c>
       <c r="F5">
-        <v>565.10299999999995</v>
+        <v>230.52600000000001</v>
       </c>
       <c r="G5">
-        <v>1869.8620000000001</v>
+        <v>786.09400000000005</v>
       </c>
       <c r="H5">
-        <v>3055.2750000000001</v>
+        <v>1149.8920000000001</v>
       </c>
       <c r="I5">
-        <v>709.14300000000003</v>
+        <v>309.60199999999998</v>
       </c>
       <c r="J5">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>15.9</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,78 +1141,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1164.731</v>
+        <v>510.995</v>
       </c>
       <c r="O5">
-        <v>1629.346</v>
+        <v>625.024</v>
       </c>
       <c r="P5">
-        <v>150</v>
+        <v>90.9</v>
       </c>
       <c r="Q5">
-        <v>-158.28899999999999</v>
+        <v>-2.774</v>
       </c>
       <c r="R5">
-        <v>40754</v>
+        <v>37198</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>1425.9290000000001</v>
+        <v>524.86800000000005</v>
       </c>
       <c r="U5">
-        <v>512.71600000000001</v>
+        <v>36.182000000000002</v>
       </c>
       <c r="V5">
-        <v>120.614</v>
+        <v>15.443</v>
       </c>
       <c r="W5">
-        <v>-25.718</v>
+        <v>-3.4020000000000001</v>
       </c>
       <c r="X5">
-        <v>-138.16800000000001</v>
+        <v>7.3620000000000001</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>8.3539999999999992</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>148.27600000000001</v>
+        <v>35.027000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40845</v>
+        <v>37289</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>143.96899999999999</v>
+        <v>49.97</v>
       </c>
       <c r="D6">
-        <v>2046.4269999999999</v>
+        <v>848.37300000000005</v>
       </c>
       <c r="E6">
-        <v>62.384</v>
+        <v>20.54</v>
       </c>
       <c r="F6">
-        <v>556.21400000000006</v>
+        <v>83.656999999999996</v>
       </c>
       <c r="G6">
-        <v>1958.1</v>
+        <v>714.99099999999999</v>
       </c>
       <c r="H6">
-        <v>3181.944</v>
+        <v>1082.7249999999999</v>
       </c>
       <c r="I6">
-        <v>759.70799999999997</v>
+        <v>314.52999999999997</v>
       </c>
       <c r="J6">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,78 +1224,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1269.0719999999999</v>
+        <v>489.58800000000002</v>
       </c>
       <c r="O6">
-        <v>1734.693</v>
+        <v>538.27</v>
       </c>
       <c r="P6">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>40.207999999999998</v>
+        <v>4.1689999999999996</v>
       </c>
       <c r="R6">
-        <v>40845</v>
+        <v>37289</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>10100</v>
       </c>
       <c r="T6">
-        <v>1447.251</v>
+        <v>544.45500000000004</v>
       </c>
       <c r="U6">
-        <v>552.92399999999998</v>
+        <v>40.350999999999999</v>
       </c>
       <c r="V6">
-        <v>252.02600000000001</v>
+        <v>141.92599999999999</v>
       </c>
       <c r="W6">
-        <v>-25.366</v>
+        <v>-3.379</v>
       </c>
       <c r="X6">
-        <v>-133.946</v>
+        <v>-120.455</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.79700000000000004</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>143.96899999999999</v>
+        <v>49.97</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40936</v>
+        <v>37380</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>191.952</v>
+        <v>47.668999999999997</v>
       </c>
       <c r="D7">
-        <v>2397.8780000000002</v>
+        <v>819.61099999999999</v>
       </c>
       <c r="E7">
-        <v>50.847999999999999</v>
+        <v>24.463999999999999</v>
       </c>
       <c r="F7">
-        <v>652.84400000000005</v>
+        <v>217.75399999999999</v>
       </c>
       <c r="G7">
-        <v>1924.3710000000001</v>
+        <v>798.06700000000001</v>
       </c>
       <c r="H7">
-        <v>3301.2089999999998</v>
+        <v>1181.674</v>
       </c>
       <c r="I7">
-        <v>761.71699999999998</v>
+        <v>362.315</v>
       </c>
       <c r="J7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1187,78 +1307,78 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1346.0519999999999</v>
+        <v>566.53399999999999</v>
       </c>
       <c r="O7">
-        <v>1808.1969999999999</v>
+        <v>617.85500000000002</v>
       </c>
       <c r="P7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>96.911000000000001</v>
+        <v>32.279000000000003</v>
       </c>
       <c r="R7">
-        <v>40936</v>
+        <v>37380</v>
       </c>
       <c r="S7">
-        <v>14900</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>1493.0119999999999</v>
+        <v>563.81899999999996</v>
       </c>
       <c r="U7">
-        <v>649.83500000000004</v>
+        <v>72.63</v>
       </c>
       <c r="V7">
-        <v>406.41399999999999</v>
+        <v>94.512</v>
       </c>
       <c r="W7">
-        <v>-25.053000000000001</v>
+        <v>-3.7389999999999999</v>
       </c>
       <c r="X7">
-        <v>-124.624</v>
+        <v>-34.972999999999999</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-6.3760000000000003</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>191.952</v>
+        <v>47.668999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41027</v>
+        <v>37471</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>208.613</v>
+        <v>49.688000000000002</v>
       </c>
       <c r="D8">
-        <v>2356.8409999999999</v>
+        <v>876.93200000000002</v>
       </c>
       <c r="E8">
-        <v>66.632000000000005</v>
+        <v>25.867000000000001</v>
       </c>
       <c r="F8">
-        <v>677.71400000000006</v>
+        <v>220.35499999999999</v>
       </c>
       <c r="G8">
-        <v>2058.9850000000001</v>
+        <v>862.005</v>
       </c>
       <c r="H8">
-        <v>3457.4859999999999</v>
+        <v>1255.808</v>
       </c>
       <c r="I8">
-        <v>830.04399999999998</v>
+        <v>398.339</v>
       </c>
       <c r="J8">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,78 +1390,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1370.6369999999999</v>
+        <v>623.68200000000002</v>
       </c>
       <c r="O8">
-        <v>1846.8510000000001</v>
+        <v>673.52300000000002</v>
       </c>
       <c r="P8">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>91.281999999999996</v>
+        <v>22.692</v>
       </c>
       <c r="R8">
-        <v>41027</v>
+        <v>37471</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>1610.635</v>
+        <v>582.28499999999997</v>
       </c>
       <c r="U8">
-        <v>741.11699999999996</v>
+        <v>95.322000000000003</v>
       </c>
       <c r="V8">
-        <v>297.33</v>
+        <v>83.822999999999993</v>
       </c>
       <c r="W8">
-        <v>-31.719000000000001</v>
+        <v>-3.73</v>
       </c>
       <c r="X8">
-        <v>-134.839</v>
+        <v>-34.302999999999997</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>0.19400000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>208.613</v>
+        <v>49.688000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41118</v>
+        <v>37562</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>182.024</v>
+        <v>45.076999999999998</v>
       </c>
       <c r="D9">
-        <v>2340.855</v>
+        <v>870.19600000000003</v>
       </c>
       <c r="E9">
-        <v>65.730999999999995</v>
+        <v>29.238</v>
       </c>
       <c r="F9">
-        <v>651.21199999999999</v>
+        <v>220.50200000000001</v>
       </c>
       <c r="G9">
-        <v>2117.9920000000002</v>
+        <v>928.77099999999996</v>
       </c>
       <c r="H9">
-        <v>3560.163</v>
+        <v>1341.249</v>
       </c>
       <c r="I9">
-        <v>885.89200000000005</v>
+        <v>404.88</v>
       </c>
       <c r="J9">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,78 +1473,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1415.136</v>
+        <v>675.64700000000005</v>
       </c>
       <c r="O9">
-        <v>1896.01</v>
+        <v>748.84900000000005</v>
       </c>
       <c r="P9">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="Q9">
-        <v>-20.071000000000002</v>
+        <v>6.1680000000000001</v>
       </c>
       <c r="R9">
-        <v>41118</v>
+        <v>37562</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>1664.153</v>
+        <v>592.4</v>
       </c>
       <c r="U9">
-        <v>721.04600000000005</v>
+        <v>101.49</v>
       </c>
       <c r="V9">
-        <v>206.833</v>
+        <v>53.158000000000001</v>
       </c>
       <c r="W9">
-        <v>-31.542999999999999</v>
+        <v>-3.6949999999999998</v>
       </c>
       <c r="X9">
-        <v>-141.31800000000001</v>
+        <v>-13.066000000000001</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>8.5999999999999993E-2</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>182.024</v>
+        <v>45.078000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41209</v>
+        <v>37653</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>159.524</v>
+        <v>58.744</v>
       </c>
       <c r="D10">
-        <v>2262.723</v>
+        <v>964.61099999999999</v>
       </c>
       <c r="E10">
-        <v>68.492999999999995</v>
+        <v>18.349</v>
       </c>
       <c r="F10">
-        <v>613.726</v>
+        <v>244.327</v>
       </c>
       <c r="G10">
-        <v>2150.87</v>
+        <v>939.06500000000005</v>
       </c>
       <c r="H10">
-        <v>3647.9369999999999</v>
+        <v>1377.99</v>
       </c>
       <c r="I10">
-        <v>886.62900000000002</v>
+        <v>397.19299999999998</v>
       </c>
       <c r="J10">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,78 +1556,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1466.588</v>
+        <v>626.68399999999997</v>
       </c>
       <c r="O10">
-        <v>1950.202</v>
+        <v>734.80200000000002</v>
       </c>
       <c r="P10">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="Q10">
-        <v>-97.224000000000004</v>
+        <v>49.158999999999999</v>
       </c>
       <c r="R10">
-        <v>41209</v>
+        <v>37653</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>10300</v>
       </c>
       <c r="T10">
-        <v>1697.7349999999999</v>
+        <v>643.18799999999999</v>
       </c>
       <c r="U10">
-        <v>623.822</v>
+        <v>140.649</v>
       </c>
       <c r="V10">
-        <v>142.107</v>
+        <v>117.536</v>
       </c>
       <c r="W10">
-        <v>-31.292000000000002</v>
+        <v>-3.6829999999999998</v>
       </c>
       <c r="X10">
-        <v>-139.167</v>
+        <v>-23.222999999999999</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0.105</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>159.524</v>
+        <v>58.744</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41307</v>
+        <v>37744</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>236.602</v>
+        <v>49.308999999999997</v>
       </c>
       <c r="D11">
-        <v>2760.6460000000002</v>
+        <v>879.28399999999999</v>
       </c>
       <c r="E11">
-        <v>59.616999999999997</v>
+        <v>23.26</v>
       </c>
       <c r="F11">
-        <v>1173.585</v>
+        <v>226.036</v>
       </c>
       <c r="G11">
-        <v>2031.4269999999999</v>
+        <v>944.36900000000003</v>
       </c>
       <c r="H11">
-        <v>3670.5610000000001</v>
+        <v>1399.7539999999999</v>
       </c>
       <c r="I11">
-        <v>807.53399999999999</v>
+        <v>396.23</v>
       </c>
       <c r="J11">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1519,78 +1639,78 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1422.5820000000001</v>
+        <v>622.21500000000003</v>
       </c>
       <c r="O11">
-        <v>1903.6980000000001</v>
+        <v>742.53800000000001</v>
       </c>
       <c r="P11">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="Q11">
-        <v>22.939</v>
+        <v>-34.104999999999997</v>
       </c>
       <c r="R11">
-        <v>41307</v>
+        <v>37744</v>
       </c>
       <c r="S11">
-        <v>16000</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>1766.8630000000001</v>
+        <v>657.21600000000001</v>
       </c>
       <c r="U11">
-        <v>646.76099999999997</v>
+        <v>106.544</v>
       </c>
       <c r="V11">
-        <v>333.37400000000002</v>
+        <v>11.561</v>
       </c>
       <c r="W11">
-        <v>-31.14</v>
+        <v>-4.4489999999999998</v>
       </c>
       <c r="X11">
-        <v>-141.66999999999999</v>
+        <v>-18.247</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0.432</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>236.602</v>
+        <v>49.308999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41398</v>
+        <v>37835</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>234.61199999999999</v>
+        <v>54.585999999999999</v>
       </c>
       <c r="D12">
-        <v>2539.9140000000002</v>
+        <v>965.61</v>
       </c>
       <c r="E12">
-        <v>77.284000000000006</v>
+        <v>27.041</v>
       </c>
       <c r="F12">
-        <v>741.10299999999995</v>
+        <v>241.404</v>
       </c>
       <c r="G12">
-        <v>2153.1959999999999</v>
+        <v>1050.816</v>
       </c>
       <c r="H12">
-        <v>3842.761</v>
+        <v>1544.2270000000001</v>
       </c>
       <c r="I12">
-        <v>859.59500000000003</v>
+        <v>467.12599999999998</v>
       </c>
       <c r="J12">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,78 +1722,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1467.202</v>
+        <v>737.53300000000002</v>
       </c>
       <c r="O12">
-        <v>1967.5</v>
+        <v>868.80399999999997</v>
       </c>
       <c r="P12">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="Q12">
-        <v>67.412999999999997</v>
+        <v>60.316000000000003</v>
       </c>
       <c r="R12">
-        <v>41398</v>
+        <v>37835</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>1875.261</v>
+        <v>675.423</v>
       </c>
       <c r="U12">
-        <v>714.17399999999998</v>
+        <v>166.86</v>
       </c>
       <c r="V12">
-        <v>352.85899999999998</v>
+        <v>143.268</v>
       </c>
       <c r="W12">
-        <v>-37.475000000000001</v>
+        <v>-4.4029999999999996</v>
       </c>
       <c r="X12">
-        <v>-175.74700000000001</v>
+        <v>-40.005000000000003</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>0.107</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>234.61199999999999</v>
+        <v>54.585999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41489</v>
+        <v>37926</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>213.12100000000001</v>
+        <v>50.470999999999997</v>
       </c>
       <c r="D13">
-        <v>2551.277</v>
+        <v>976.94</v>
       </c>
       <c r="E13">
-        <v>79.201999999999998</v>
+        <v>26.31</v>
       </c>
       <c r="F13">
-        <v>727.5</v>
+        <v>246.69499999999999</v>
       </c>
       <c r="G13">
-        <v>2098.4769999999999</v>
+        <v>1041.925</v>
       </c>
       <c r="H13">
-        <v>3908.4850000000001</v>
+        <v>1559.5719999999999</v>
       </c>
       <c r="I13">
-        <v>938.05899999999997</v>
+        <v>448.029</v>
       </c>
       <c r="J13">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,78 +1805,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1471.8140000000001</v>
+        <v>735.84</v>
       </c>
       <c r="O13">
-        <v>1977.5150000000001</v>
+        <v>868.55399999999997</v>
       </c>
       <c r="P13">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="Q13">
-        <v>-163.60900000000001</v>
+        <v>-59.143000000000001</v>
       </c>
       <c r="R13">
-        <v>41489</v>
+        <v>37926</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>1930.97</v>
+        <v>691.01800000000003</v>
       </c>
       <c r="U13">
-        <v>550.56500000000005</v>
+        <v>107.717</v>
       </c>
       <c r="V13">
-        <v>179.46899999999999</v>
+        <v>17.872</v>
       </c>
       <c r="W13">
-        <v>-37.128999999999998</v>
+        <v>-4.3689999999999998</v>
       </c>
       <c r="X13">
-        <v>-169.881</v>
+        <v>-38.119999999999997</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>1.032</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>213.12100000000001</v>
+        <v>50.470999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41580</v>
+        <v>38017</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>171.61799999999999</v>
+        <v>73.207999999999998</v>
       </c>
       <c r="D14">
-        <v>2398.1219999999998</v>
+        <v>1098.749</v>
       </c>
       <c r="E14">
-        <v>72.819000000000003</v>
+        <v>25.292000000000002</v>
       </c>
       <c r="F14">
-        <v>651.88699999999994</v>
+        <v>287.64699999999999</v>
       </c>
       <c r="G14">
-        <v>2050.0889999999999</v>
+        <v>1122.374</v>
       </c>
       <c r="H14">
-        <v>3946.723</v>
+        <v>1691.4649999999999</v>
       </c>
       <c r="I14">
-        <v>908.79700000000003</v>
+        <v>448.04399999999998</v>
       </c>
       <c r="J14">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,78 +1888,78 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1496.6969999999999</v>
+        <v>712.86699999999996</v>
       </c>
       <c r="O14">
-        <v>2005.596</v>
+        <v>938.90499999999997</v>
       </c>
       <c r="P14">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="Q14">
-        <v>-178.29499999999999</v>
+        <v>83.828999999999994</v>
       </c>
       <c r="R14">
-        <v>41580</v>
+        <v>38017</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>9900</v>
       </c>
       <c r="T14">
-        <v>1941.127</v>
+        <v>752.56</v>
       </c>
       <c r="U14">
-        <v>372.27</v>
+        <v>201.54599999999999</v>
       </c>
       <c r="V14">
-        <v>148.893</v>
+        <v>148.77000000000001</v>
       </c>
       <c r="W14">
-        <v>-36.811</v>
+        <v>-4.351</v>
       </c>
       <c r="X14">
-        <v>-173.179</v>
+        <v>-21.507999999999999</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-12.000999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>171.61799999999999</v>
+        <v>73.207999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41671</v>
+        <v>38108</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>217.953</v>
+        <v>48.146999999999998</v>
       </c>
       <c r="D15">
-        <v>2741.04</v>
+        <v>991.89200000000005</v>
       </c>
       <c r="E15">
-        <v>62.612000000000002</v>
+        <v>32.241999999999997</v>
       </c>
       <c r="F15">
-        <v>1183.8389999999999</v>
+        <v>240.726</v>
       </c>
       <c r="G15">
-        <v>1867.1590000000001</v>
+        <v>1134.7909999999999</v>
       </c>
       <c r="H15">
-        <v>3896.797</v>
+        <v>1683.3789999999999</v>
       </c>
       <c r="I15">
-        <v>779.45500000000004</v>
+        <v>463.58499999999998</v>
       </c>
       <c r="J15">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1851,78 +1971,78 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1393.057</v>
+        <v>728.72500000000002</v>
       </c>
       <c r="O15">
-        <v>1889.4949999999999</v>
+        <v>925.88499999999999</v>
       </c>
       <c r="P15">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="Q15">
-        <v>50.898000000000003</v>
+        <v>-16.594999999999999</v>
       </c>
       <c r="R15">
-        <v>41671</v>
+        <v>38108</v>
       </c>
       <c r="S15">
-        <v>17400</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>2007.3019999999999</v>
+        <v>757.49400000000003</v>
       </c>
       <c r="U15">
-        <v>423.16800000000001</v>
+        <v>174.95099999999999</v>
       </c>
       <c r="V15">
-        <v>340.78199999999998</v>
+        <v>72.016000000000005</v>
       </c>
       <c r="W15">
-        <v>-36.502000000000002</v>
+        <v>-6.4210000000000003</v>
       </c>
       <c r="X15">
-        <v>-162.98099999999999</v>
+        <v>-63.107999999999997</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>0.46400000000000002</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>217.953</v>
+        <v>48.146999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41762</v>
+        <v>38199</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>243.91300000000001</v>
+        <v>32.213999999999999</v>
       </c>
       <c r="D16">
-        <v>2680.5929999999998</v>
+        <v>1008.6</v>
       </c>
       <c r="E16">
-        <v>84.492000000000004</v>
+        <v>27.876000000000001</v>
       </c>
       <c r="F16">
-        <v>772.40899999999999</v>
+        <v>234.88399999999999</v>
       </c>
       <c r="G16">
-        <v>2063.0219999999999</v>
+        <v>1110.491</v>
       </c>
       <c r="H16">
-        <v>4151.5940000000001</v>
+        <v>1641.011</v>
       </c>
       <c r="I16">
-        <v>930.57600000000002</v>
+        <v>471.65100000000001</v>
       </c>
       <c r="J16">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2054,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1576.3530000000001</v>
+        <v>723.81799999999998</v>
       </c>
       <c r="O16">
-        <v>2076.3159999999998</v>
+        <v>917.07500000000005</v>
       </c>
       <c r="P16">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="Q16">
-        <v>172.78200000000001</v>
+        <v>-120.598</v>
       </c>
       <c r="R16">
-        <v>41762</v>
+        <v>38199</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>2075.2779999999998</v>
+        <v>723.93600000000004</v>
       </c>
       <c r="U16">
-        <v>595.95000000000005</v>
+        <v>98.352999999999994</v>
       </c>
       <c r="V16">
-        <v>504.577</v>
+        <v>28.753</v>
       </c>
       <c r="W16">
-        <v>-42.581000000000003</v>
+        <v>-6.3470000000000004</v>
       </c>
       <c r="X16">
-        <v>-188.137</v>
+        <v>-70.736000000000004</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>12.022</v>
+        <v>-44</v>
       </c>
       <c r="AA16">
-        <v>243.91300000000001</v>
+        <v>32.213999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41853</v>
+        <v>38290</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>239.56100000000001</v>
+        <v>37.715000000000003</v>
       </c>
       <c r="D17">
-        <v>2729.5659999999998</v>
+        <v>1027.7439999999999</v>
       </c>
       <c r="E17">
-        <v>85.218000000000004</v>
+        <v>33.076999999999998</v>
       </c>
       <c r="F17">
-        <v>785.54899999999998</v>
+        <v>222.61799999999999</v>
       </c>
       <c r="G17">
-        <v>2023.865</v>
+        <v>1161.261</v>
       </c>
       <c r="H17">
-        <v>4167.8320000000003</v>
+        <v>1721.2349999999999</v>
       </c>
       <c r="I17">
-        <v>967.91499999999996</v>
+        <v>512.67200000000003</v>
       </c>
       <c r="J17">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2137,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1532.1210000000001</v>
+        <v>778.18600000000004</v>
       </c>
       <c r="O17">
-        <v>2018.5050000000001</v>
+        <v>985.20699999999999</v>
       </c>
       <c r="P17">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="Q17">
-        <v>-46.165999999999997</v>
+        <v>-6.5659999999999998</v>
       </c>
       <c r="R17">
-        <v>41853</v>
+        <v>38290</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>2149.3270000000002</v>
+        <v>736.02800000000002</v>
       </c>
       <c r="U17">
-        <v>549.78399999999999</v>
+        <v>47.786999999999999</v>
       </c>
       <c r="V17">
-        <v>237.214</v>
+        <v>14.087999999999999</v>
       </c>
       <c r="W17">
-        <v>-42.3</v>
+        <v>-6.2610000000000001</v>
       </c>
       <c r="X17">
-        <v>-178.667</v>
+        <v>-29.995999999999999</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AA17">
-        <v>239.56100000000001</v>
+        <v>37.715000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>41944</v>
+        <v>38381</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>192.72</v>
+        <v>51.826000000000001</v>
       </c>
       <c r="D18">
-        <v>2598.8200000000002</v>
+        <v>1211.7539999999999</v>
       </c>
       <c r="E18">
-        <v>75.894999999999996</v>
+        <v>31.154</v>
       </c>
       <c r="F18">
-        <v>716.63499999999999</v>
+        <v>261.88499999999999</v>
       </c>
       <c r="G18">
-        <v>2302.4929999999999</v>
+        <v>1127.9369999999999</v>
       </c>
       <c r="H18">
-        <v>4669.2420000000002</v>
+        <v>1741.2149999999999</v>
       </c>
       <c r="I18">
-        <v>1131.7170000000001</v>
+        <v>451.86099999999999</v>
       </c>
       <c r="J18">
-        <v>398.339</v>
+        <v>50</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,78 +2220,78 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1766.924</v>
+        <v>711.56100000000004</v>
       </c>
       <c r="O18">
-        <v>2481.9459999999999</v>
+        <v>975.64599999999996</v>
       </c>
       <c r="P18">
-        <v>398.339</v>
+        <v>50</v>
       </c>
       <c r="Q18">
-        <v>21.794</v>
+        <v>57.543999999999997</v>
       </c>
       <c r="R18">
-        <v>41944</v>
+        <v>38381</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>12400</v>
       </c>
       <c r="T18">
-        <v>2187.2959999999998</v>
+        <v>765.56899999999996</v>
       </c>
       <c r="U18">
-        <v>571.57799999999997</v>
+        <v>115.331</v>
       </c>
       <c r="V18">
-        <v>240.191</v>
+        <v>183.3</v>
       </c>
       <c r="W18">
-        <v>-41.926000000000002</v>
+        <v>-6.2309999999999999</v>
       </c>
       <c r="X18">
-        <v>77.519000000000005</v>
+        <v>-20.991</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>-67.400000000000006</v>
       </c>
       <c r="AA18">
-        <v>192.72</v>
+        <v>51.826000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42035</v>
+        <v>38472</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>248.53</v>
+        <v>50.05</v>
       </c>
       <c r="D19">
-        <v>3032.6979999999999</v>
+        <v>1123.9369999999999</v>
       </c>
       <c r="E19">
-        <v>73.278000000000006</v>
+        <v>35.277000000000001</v>
       </c>
       <c r="F19">
-        <v>1281.029</v>
+        <v>258.93799999999999</v>
       </c>
       <c r="G19">
-        <v>2249.8389999999999</v>
+        <v>1275.768</v>
       </c>
       <c r="H19">
-        <v>4687.37</v>
+        <v>1880.4290000000001</v>
       </c>
       <c r="I19">
-        <v>1000.7</v>
+        <v>554.93399999999997</v>
       </c>
       <c r="J19">
-        <v>395.56200000000001</v>
+        <v>50</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2183,78 +2303,78 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1659.3679999999999</v>
+        <v>814.13599999999997</v>
       </c>
       <c r="O19">
-        <v>2408.16</v>
+        <v>1073.027</v>
       </c>
       <c r="P19">
-        <v>395.56200000000001</v>
+        <v>50</v>
       </c>
       <c r="Q19">
-        <v>125.03</v>
+        <v>29.05</v>
       </c>
       <c r="R19">
-        <v>42035</v>
+        <v>38472</v>
       </c>
       <c r="S19">
-        <v>71400</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>2279.21</v>
+        <v>807.40200000000004</v>
       </c>
       <c r="U19">
-        <v>696.60799999999995</v>
+        <v>144.381</v>
       </c>
       <c r="V19">
-        <v>390.88299999999998</v>
+        <v>95.245999999999995</v>
       </c>
       <c r="W19">
-        <v>-41.646999999999998</v>
+        <v>-7.3810000000000002</v>
       </c>
       <c r="X19">
-        <v>-171.14099999999999</v>
+        <v>-33.220999999999997</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-1E-3</v>
+        <v>-16.95</v>
       </c>
       <c r="AA19">
-        <v>248.53</v>
+        <v>50.05</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42126</v>
+        <v>38563</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>282.20499999999998</v>
+        <v>42.279000000000003</v>
       </c>
       <c r="D20">
-        <v>2938.1480000000001</v>
+        <v>1171.8620000000001</v>
       </c>
       <c r="E20">
-        <v>88.257999999999996</v>
+        <v>35.371000000000002</v>
       </c>
       <c r="F20">
-        <v>870.69299999999998</v>
+        <v>252.696</v>
       </c>
       <c r="G20">
-        <v>2486.366</v>
+        <v>1216.442</v>
       </c>
       <c r="H20">
-        <v>4936.049</v>
+        <v>1878.3409999999999</v>
       </c>
       <c r="I20">
-        <v>1128.808</v>
+        <v>534.25300000000004</v>
       </c>
       <c r="J20">
-        <v>395.67700000000002</v>
+        <v>50</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2386,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1825.0070000000001</v>
+        <v>807.23500000000001</v>
       </c>
       <c r="O20">
-        <v>2602.5500000000002</v>
+        <v>1069.1289999999999</v>
       </c>
       <c r="P20">
-        <v>395.67700000000002</v>
+        <v>50</v>
       </c>
       <c r="Q20">
-        <v>64.748000000000005</v>
+        <v>-24.984000000000002</v>
       </c>
       <c r="R20">
-        <v>42126</v>
+        <v>38563</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>2333.4989999999998</v>
+        <v>809.21199999999999</v>
       </c>
       <c r="U20">
-        <v>761.35599999999999</v>
+        <v>119.39700000000001</v>
       </c>
       <c r="V20">
-        <v>413.988</v>
+        <v>44.744999999999997</v>
       </c>
       <c r="W20">
-        <v>-48.743000000000002</v>
+        <v>-7.3659999999999997</v>
       </c>
       <c r="X20">
-        <v>-242.18600000000001</v>
+        <v>-48.103999999999999</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-0.11700000000000001</v>
+        <v>58.55</v>
       </c>
       <c r="AA20">
-        <v>282.20499999999998</v>
+        <v>42.279000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42217</v>
+        <v>38654</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>258.63900000000001</v>
+        <v>36.325000000000003</v>
       </c>
       <c r="D21">
-        <v>2968.27</v>
+        <v>1236.8920000000001</v>
       </c>
       <c r="E21">
-        <v>88.442999999999998</v>
+        <v>35.246000000000002</v>
       </c>
       <c r="F21">
-        <v>848.79</v>
+        <v>257.005</v>
       </c>
       <c r="G21">
-        <v>2370.0329999999999</v>
+        <v>1331.644</v>
       </c>
       <c r="H21">
-        <v>4824.3040000000001</v>
+        <v>2014.5409999999999</v>
       </c>
       <c r="I21">
-        <v>1044.875</v>
+        <v>653.93600000000004</v>
       </c>
       <c r="J21">
-        <v>395.79300000000001</v>
+        <v>50</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2469,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1675.6569999999999</v>
+        <v>945.41399999999999</v>
       </c>
       <c r="O21">
-        <v>2437.79</v>
+        <v>1212.3440000000001</v>
       </c>
       <c r="P21">
-        <v>395.79300000000001</v>
+        <v>50</v>
       </c>
       <c r="Q21">
-        <v>-131.06800000000001</v>
+        <v>58.356000000000002</v>
       </c>
       <c r="R21">
-        <v>42217</v>
+        <v>38654</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>2386.5140000000001</v>
+        <v>802.197</v>
       </c>
       <c r="U21">
-        <v>630.28800000000001</v>
+        <v>177.75299999999999</v>
       </c>
       <c r="V21">
-        <v>176.38300000000001</v>
+        <v>124.21</v>
       </c>
       <c r="W21">
-        <v>-48.198999999999998</v>
+        <v>-7.298</v>
       </c>
       <c r="X21">
-        <v>-221.208</v>
+        <v>-48.523000000000003</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>1E-3</v>
+        <v>25.8</v>
       </c>
       <c r="AA21">
-        <v>258.63900000000001</v>
+        <v>36.325000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42308</v>
+        <v>38745</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>215.65600000000001</v>
+        <v>70.977999999999994</v>
       </c>
       <c r="D22">
-        <v>2782.855</v>
+        <v>1411.4880000000001</v>
       </c>
       <c r="E22">
-        <v>81.323999999999998</v>
+        <v>29.122</v>
       </c>
       <c r="F22">
-        <v>779.50800000000004</v>
+        <v>322.94900000000001</v>
       </c>
       <c r="G22">
-        <v>2434.59</v>
+        <v>1228.847</v>
       </c>
       <c r="H22">
-        <v>4903.7709999999997</v>
+        <v>1938.7380000000001</v>
       </c>
       <c r="I22">
-        <v>1053.0129999999999</v>
+        <v>474.61399999999998</v>
       </c>
       <c r="J22">
-        <v>395.90899999999999</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,78 +2552,78 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1749.479</v>
+        <v>878.98299999999995</v>
       </c>
       <c r="O22">
-        <v>2509.6889999999999</v>
+        <v>1102.566</v>
       </c>
       <c r="P22">
-        <v>395.90899999999999</v>
+        <v>50</v>
       </c>
       <c r="Q22">
-        <v>-144.58500000000001</v>
+        <v>14.013999999999999</v>
       </c>
       <c r="R22">
-        <v>42308</v>
+        <v>38745</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="T22">
-        <v>2394.0819999999999</v>
+        <v>836.17200000000003</v>
       </c>
       <c r="U22">
-        <v>485.70299999999997</v>
+        <v>191.767</v>
       </c>
       <c r="V22">
-        <v>171.65600000000001</v>
+        <v>110.99</v>
       </c>
       <c r="W22">
-        <v>-47.890999999999998</v>
+        <v>-8.67</v>
       </c>
       <c r="X22">
-        <v>-223.77199999999999</v>
+        <v>-36.511000000000003</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>1E-3</v>
+        <v>-23.945</v>
       </c>
       <c r="AA22">
-        <v>215.65600000000001</v>
+        <v>70.977999999999994</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42399</v>
+        <v>38836</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>264.161</v>
+        <v>59.216999999999999</v>
       </c>
       <c r="D23">
-        <v>3250.7260000000001</v>
+        <v>1291.6759999999999</v>
       </c>
       <c r="E23">
-        <v>73.626999999999995</v>
+        <v>36.034999999999997</v>
       </c>
       <c r="F23">
-        <v>1337.335</v>
+        <v>302.83999999999997</v>
       </c>
       <c r="G23">
-        <v>2372.1950000000002</v>
+        <v>1267.4100000000001</v>
       </c>
       <c r="H23">
-        <v>4869.1189999999997</v>
+        <v>1973.6369999999999</v>
       </c>
       <c r="I23">
-        <v>945.55899999999997</v>
+        <v>546.32899999999995</v>
       </c>
       <c r="J23">
-        <v>396.02499999999998</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2512,81 +2632,81 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="N23">
-        <v>1602.847</v>
+        <v>890.48699999999997</v>
       </c>
       <c r="O23">
-        <v>2397.1280000000002</v>
+        <v>1112.915</v>
       </c>
       <c r="P23">
-        <v>396.02499999999998</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>275.899</v>
+        <v>-46.536999999999999</v>
       </c>
       <c r="R23">
-        <v>42399</v>
+        <v>38836</v>
       </c>
       <c r="S23">
-        <v>77800</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>2471.991</v>
+        <v>860.72199999999998</v>
       </c>
       <c r="U23">
-        <v>761.60199999999998</v>
+        <v>145.22999999999999</v>
       </c>
       <c r="V23">
-        <v>564.22500000000002</v>
+        <v>105.465</v>
       </c>
       <c r="W23">
-        <v>-47.478999999999999</v>
+        <v>-8.6219999999999999</v>
       </c>
       <c r="X23">
-        <v>-211.583</v>
+        <v>-100.57</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0.501</v>
+        <v>-33.408000000000001</v>
       </c>
       <c r="AA23">
-        <v>264.161</v>
+        <v>59.216999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42490</v>
+        <v>38927</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>290.63400000000001</v>
+        <v>45.377000000000002</v>
       </c>
       <c r="D24">
-        <v>3088.9949999999999</v>
+        <v>1308.0519999999999</v>
       </c>
       <c r="E24">
-        <v>96.244</v>
+        <v>33.904000000000003</v>
       </c>
       <c r="F24">
-        <v>912.79</v>
+        <v>283.92200000000003</v>
       </c>
       <c r="G24">
-        <v>2629.123</v>
+        <v>1131.0450000000001</v>
       </c>
       <c r="H24">
-        <v>5114.1769999999997</v>
+        <v>1936.1469999999999</v>
       </c>
       <c r="I24">
-        <v>1056.2570000000001</v>
+        <v>537.928</v>
       </c>
       <c r="J24">
-        <v>396.142</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2718,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1750.896</v>
+        <v>860.59100000000001</v>
       </c>
       <c r="O24">
-        <v>2574.7359999999999</v>
+        <v>1079.098</v>
       </c>
       <c r="P24">
-        <v>396.142</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>148.423</v>
+        <v>-85.879000000000005</v>
       </c>
       <c r="R24">
-        <v>42490</v>
+        <v>38927</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>2539.4409999999998</v>
+        <v>857.04899999999998</v>
       </c>
       <c r="U24">
-        <v>910.02499999999998</v>
+        <v>59.350999999999999</v>
       </c>
       <c r="V24">
-        <v>469.08</v>
+        <v>63.631</v>
       </c>
       <c r="W24">
-        <v>-54.235999999999997</v>
+        <v>-8.5559999999999992</v>
       </c>
       <c r="X24">
-        <v>-240.88900000000001</v>
+        <v>-58.033999999999999</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>36.622999999999998</v>
       </c>
       <c r="AA24">
-        <v>290.63400000000001</v>
+        <v>45.377000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42581</v>
+        <v>39018</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>281.90600000000001</v>
+        <v>43.933</v>
       </c>
       <c r="D25">
-        <v>3180.9169999999999</v>
+        <v>1362.0450000000001</v>
       </c>
       <c r="E25">
-        <v>97.138999999999996</v>
+        <v>36.823</v>
       </c>
       <c r="F25">
-        <v>929.072</v>
+        <v>288.22500000000002</v>
       </c>
       <c r="G25">
-        <v>2713.68</v>
+        <v>1300.6379999999999</v>
       </c>
       <c r="H25">
-        <v>5194.2340000000004</v>
+        <v>2132.1280000000002</v>
       </c>
       <c r="I25">
-        <v>1125.836</v>
+        <v>670.57799999999997</v>
       </c>
       <c r="J25">
-        <v>396.25900000000001</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2801,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1751.181</v>
+        <v>1047.5260000000001</v>
       </c>
       <c r="O25">
-        <v>2579.904</v>
+        <v>1273.3920000000001</v>
       </c>
       <c r="P25">
-        <v>396.25900000000001</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>17.693000000000001</v>
+        <v>62.718000000000004</v>
       </c>
       <c r="R25">
-        <v>42581</v>
+        <v>39018</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>2614.33</v>
+        <v>858.73599999999999</v>
       </c>
       <c r="U25">
-        <v>927.71799999999996</v>
+        <v>122.069</v>
       </c>
       <c r="V25">
-        <v>310.47399999999999</v>
+        <v>161.15299999999999</v>
       </c>
       <c r="W25">
-        <v>-53.847999999999999</v>
+        <v>-8.1880000000000006</v>
       </c>
       <c r="X25">
-        <v>-225.494</v>
+        <v>-48.923000000000002</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>0.51400000000000001</v>
+        <v>-14.941000000000001</v>
       </c>
       <c r="AA25">
-        <v>281.90600000000001</v>
+        <v>43.933</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42672</v>
+        <v>39116</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>244.54599999999999</v>
+        <v>93.106999999999999</v>
       </c>
       <c r="D26">
-        <v>3086.6869999999999</v>
+        <v>1608.4369999999999</v>
       </c>
       <c r="E26">
-        <v>91.355000000000004</v>
+        <v>30.105</v>
       </c>
       <c r="F26">
-        <v>880.59500000000003</v>
+        <v>377.69600000000003</v>
       </c>
       <c r="G26">
-        <v>2875.3760000000002</v>
+        <v>1514.9559999999999</v>
       </c>
       <c r="H26">
-        <v>5349.8869999999997</v>
+        <v>2358.5909999999999</v>
       </c>
       <c r="I26">
-        <v>1149.136</v>
+        <v>698.06299999999999</v>
       </c>
       <c r="J26">
-        <v>396.37599999999998</v>
+        <v>150</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,78 +2884,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>1887.944</v>
+        <v>1083.2570000000001</v>
       </c>
       <c r="O26">
-        <v>2700.3649999999998</v>
+        <v>1448.761</v>
       </c>
       <c r="P26">
-        <v>396.37599999999998</v>
+        <v>150</v>
       </c>
       <c r="Q26">
-        <v>-48.906999999999996</v>
+        <v>245.31899999999999</v>
       </c>
       <c r="R26">
-        <v>42672</v>
+        <v>39116</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>13300</v>
       </c>
       <c r="T26">
-        <v>2649.5219999999999</v>
+        <v>909.83</v>
       </c>
       <c r="U26">
-        <v>878.81100000000004</v>
+        <v>367.38799999999998</v>
       </c>
       <c r="V26">
-        <v>249.67400000000001</v>
+        <v>176.61799999999999</v>
       </c>
       <c r="W26">
-        <v>-53.47</v>
+        <v>-8.2680000000000007</v>
       </c>
       <c r="X26">
-        <v>-229.60400000000001</v>
+        <v>112.22199999999999</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>0.4</v>
+        <v>-0.875</v>
       </c>
       <c r="AA26">
-        <v>244.54599999999999</v>
+        <v>93.106999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42763</v>
+        <v>39207</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>300.56799999999998</v>
+        <v>67.043999999999997</v>
       </c>
       <c r="D27">
-        <v>3510.1579999999999</v>
+        <v>1410.5409999999999</v>
       </c>
       <c r="E27">
-        <v>75.153999999999996</v>
+        <v>36.94</v>
       </c>
       <c r="F27">
-        <v>1475.7950000000001</v>
+        <v>339.26299999999998</v>
       </c>
       <c r="G27">
-        <v>2813.049</v>
+        <v>1424.954</v>
       </c>
       <c r="H27">
-        <v>5309.3509999999997</v>
+        <v>2290.1460000000002</v>
       </c>
       <c r="I27">
-        <v>1021.735</v>
+        <v>608.78899999999999</v>
       </c>
       <c r="J27">
-        <v>396.49299999999999</v>
+        <v>150</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2847,78 +2967,78 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>1752.5060000000001</v>
+        <v>952.98500000000001</v>
       </c>
       <c r="O27">
-        <v>2561.3339999999998</v>
+        <v>1354.1369999999999</v>
       </c>
       <c r="P27">
-        <v>396.49299999999999</v>
+        <v>150</v>
       </c>
       <c r="Q27">
-        <v>232.78800000000001</v>
+        <v>-168.26499999999999</v>
       </c>
       <c r="R27">
-        <v>42763</v>
+        <v>39207</v>
       </c>
       <c r="S27">
-        <v>78600</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>2748.0169999999998</v>
+        <v>936.00900000000001</v>
       </c>
       <c r="U27">
-        <v>1111.5989999999999</v>
+        <v>199.12299999999999</v>
       </c>
       <c r="V27">
-        <v>529.62300000000005</v>
+        <v>-66.045000000000002</v>
       </c>
       <c r="W27">
-        <v>-53.085999999999999</v>
+        <v>-10.308999999999999</v>
       </c>
       <c r="X27">
-        <v>-220.10400000000001</v>
+        <v>-51.08</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>0.81499999999999995</v>
+        <v>-3.7589999999999999</v>
       </c>
       <c r="AA27">
-        <v>300.56799999999998</v>
+        <v>67.043999999999997</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42854</v>
+        <v>39298</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>321.01799999999997</v>
+        <v>50.863</v>
       </c>
       <c r="D28">
-        <v>3306.4290000000001</v>
+        <v>1444.6320000000001</v>
       </c>
       <c r="E28">
-        <v>100.84</v>
+        <v>42.070999999999998</v>
       </c>
       <c r="F28">
-        <v>976.46299999999997</v>
+        <v>313.346</v>
       </c>
       <c r="G28">
-        <v>3064.7350000000001</v>
+        <v>1377.856</v>
       </c>
       <c r="H28">
-        <v>5552.9750000000004</v>
+        <v>2268.8789999999999</v>
       </c>
       <c r="I28">
-        <v>1178.029</v>
+        <v>598.95299999999997</v>
       </c>
       <c r="J28">
-        <v>396.61099999999999</v>
+        <v>150</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +3050,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1937.723</v>
+        <v>930.78899999999999</v>
       </c>
       <c r="O28">
-        <v>2775.2289999999998</v>
+        <v>1331.8309999999999</v>
       </c>
       <c r="P28">
-        <v>396.61099999999999</v>
+        <v>150</v>
       </c>
       <c r="Q28">
-        <v>132.703</v>
+        <v>-66.314999999999998</v>
       </c>
       <c r="R28">
-        <v>42854</v>
+        <v>39298</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>2777.7460000000001</v>
+        <v>937.048</v>
       </c>
       <c r="U28">
-        <v>1244.2190000000001</v>
+        <v>132.80799999999999</v>
       </c>
       <c r="V28">
-        <v>520.86099999999999</v>
+        <v>73.692999999999998</v>
       </c>
       <c r="W28">
-        <v>-62.795000000000002</v>
+        <v>-10.231</v>
       </c>
       <c r="X28">
-        <v>-312.18700000000001</v>
+        <v>-56.563000000000002</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>-23.541</v>
       </c>
       <c r="AA28">
-        <v>321.01799999999997</v>
+        <v>50.863</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>42945</v>
+        <v>39389</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>316.53899999999999</v>
+        <v>48.682000000000002</v>
       </c>
       <c r="D29">
-        <v>3431.6030000000001</v>
+        <v>1468.337</v>
       </c>
       <c r="E29">
-        <v>103.35899999999999</v>
+        <v>47.515000000000001</v>
       </c>
       <c r="F29">
-        <v>1010.6609999999999</v>
+        <v>317.58300000000003</v>
       </c>
       <c r="G29">
-        <v>3004.4169999999999</v>
+        <v>1414.3489999999999</v>
       </c>
       <c r="H29">
-        <v>5514.4790000000003</v>
+        <v>2343.6419999999998</v>
       </c>
       <c r="I29">
-        <v>1172.847</v>
+        <v>654.34100000000001</v>
       </c>
       <c r="J29">
-        <v>396.72899999999998</v>
+        <v>150</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3133,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>1828.961</v>
+        <v>1012.904</v>
       </c>
       <c r="O29">
-        <v>2674.5949999999998</v>
+        <v>1412.739</v>
       </c>
       <c r="P29">
-        <v>396.72899999999998</v>
+        <v>150</v>
       </c>
       <c r="Q29">
-        <v>-93.113</v>
+        <v>18.739999999999998</v>
       </c>
       <c r="R29">
-        <v>42945</v>
+        <v>39389</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>2839.884</v>
+        <v>930.90300000000002</v>
       </c>
       <c r="U29">
-        <v>1150.932</v>
+        <v>151.548</v>
       </c>
       <c r="V29">
-        <v>277.09800000000001</v>
+        <v>124.75700000000001</v>
       </c>
       <c r="W29">
-        <v>-62.167000000000002</v>
+        <v>-10.114000000000001</v>
       </c>
       <c r="X29">
-        <v>-276.86599999999999</v>
+        <v>-61.761000000000003</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>25.248999999999999</v>
       </c>
       <c r="AA29">
-        <v>316.53899999999999</v>
+        <v>48.682000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43036</v>
+        <v>39480</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>274.44900000000001</v>
+        <v>94.462000000000003</v>
       </c>
       <c r="D30">
-        <v>3328.8939999999998</v>
+        <v>1651.702</v>
       </c>
       <c r="E30">
-        <v>103.071</v>
+        <v>37.468000000000004</v>
       </c>
       <c r="F30">
-        <v>959.74599999999998</v>
+        <v>386.8</v>
       </c>
       <c r="G30">
-        <v>3235.9450000000002</v>
+        <v>1398.001</v>
       </c>
       <c r="H30">
-        <v>5766.9780000000001</v>
+        <v>2371.3220000000001</v>
       </c>
       <c r="I30">
-        <v>1289.6199999999999</v>
+        <v>637.15800000000002</v>
       </c>
       <c r="J30">
-        <v>396.84800000000001</v>
+        <v>150</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3216,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>2056.2420000000002</v>
+        <v>1010.605</v>
       </c>
       <c r="O30">
-        <v>2908.4589999999998</v>
+        <v>1400.673</v>
       </c>
       <c r="P30">
-        <v>396.84800000000001</v>
+        <v>150</v>
       </c>
       <c r="Q30">
-        <v>-7.8330000000000002</v>
+        <v>106.032</v>
       </c>
       <c r="R30">
-        <v>43036</v>
+        <v>39480</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>13800</v>
       </c>
       <c r="T30">
-        <v>2858.5189999999998</v>
+        <v>970.649</v>
       </c>
       <c r="U30">
-        <v>1144.1690000000001</v>
+        <v>257.58</v>
       </c>
       <c r="V30">
-        <v>367.72699999999998</v>
+        <v>221.154</v>
       </c>
       <c r="W30">
-        <v>-61.497</v>
+        <v>-9.984</v>
       </c>
       <c r="X30">
-        <v>-278.01299999999998</v>
+        <v>-49.22</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>-6.9269999999999996</v>
       </c>
       <c r="AA30">
-        <v>274.44900000000001</v>
+        <v>94.462000000000003</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43134</v>
+        <v>39571</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>450.74700000000001</v>
+        <v>79.484999999999999</v>
       </c>
       <c r="D31">
-        <v>4067.806</v>
+        <v>1556.328</v>
       </c>
       <c r="E31">
-        <v>87.867999999999995</v>
+        <v>48.892000000000003</v>
       </c>
       <c r="F31">
-        <v>1677.624</v>
+        <v>374.77100000000002</v>
       </c>
       <c r="G31">
-        <v>3151.1570000000002</v>
+        <v>1466.921</v>
       </c>
       <c r="H31">
-        <v>5722.0510000000004</v>
+        <v>2444.393</v>
       </c>
       <c r="I31">
-        <v>1059.8440000000001</v>
+        <v>661.84699999999998</v>
       </c>
       <c r="J31">
-        <v>311.99400000000003</v>
+        <v>150</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3179,78 +3299,78 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>1926.402</v>
+        <v>1048.175</v>
       </c>
       <c r="O31">
-        <v>2672.7429999999999</v>
+        <v>1450.1679999999999</v>
       </c>
       <c r="P31">
-        <v>396.96699999999998</v>
+        <v>150</v>
       </c>
       <c r="Q31">
-        <v>145.33500000000001</v>
+        <v>48.223999999999997</v>
       </c>
       <c r="R31">
-        <v>43134</v>
+        <v>39571</v>
       </c>
       <c r="S31">
-        <v>82700</v>
+        <v>0</v>
       </c>
       <c r="T31">
-        <v>3049.308</v>
+        <v>994.22500000000002</v>
       </c>
       <c r="U31">
-        <v>1290.2940000000001</v>
+        <v>305.80399999999997</v>
       </c>
       <c r="V31">
-        <v>515.65200000000004</v>
+        <v>160.83500000000001</v>
       </c>
       <c r="W31">
-        <v>-61.067</v>
+        <v>-12.532</v>
       </c>
       <c r="X31">
-        <v>-282.42500000000001</v>
+        <v>-73.278999999999996</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>0.68700000000000006</v>
+        <v>2.8380000000000001</v>
       </c>
       <c r="AA31">
-        <v>450.74700000000001</v>
+        <v>79.484999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43225</v>
+        <v>39662</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>418.25200000000001</v>
+        <v>71.299000000000007</v>
       </c>
       <c r="D32">
-        <v>3588.6190000000001</v>
+        <v>1640.412</v>
       </c>
       <c r="E32">
-        <v>109.425</v>
+        <v>49.423000000000002</v>
       </c>
       <c r="F32">
-        <v>1066.4000000000001</v>
+        <v>385.19</v>
       </c>
       <c r="G32">
-        <v>3454.0790000000002</v>
+        <v>1464.63</v>
       </c>
       <c r="H32">
-        <v>6020.8360000000002</v>
+        <v>2478.4169999999999</v>
       </c>
       <c r="I32">
-        <v>1299.145</v>
+        <v>682.56500000000005</v>
       </c>
       <c r="J32">
-        <v>312.10500000000002</v>
+        <v>150</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3382,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>2106.625</v>
+        <v>1070.0650000000001</v>
       </c>
       <c r="O32">
-        <v>2890.5479999999998</v>
+        <v>1472.297</v>
       </c>
       <c r="P32">
-        <v>397.08600000000001</v>
+        <v>150</v>
       </c>
       <c r="Q32">
-        <v>11.866</v>
+        <v>3.75</v>
       </c>
       <c r="R32">
-        <v>43225</v>
+        <v>39662</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>3130.288</v>
+        <v>1006.12</v>
       </c>
       <c r="U32">
-        <v>1302.836</v>
+        <v>309.55399999999997</v>
       </c>
       <c r="V32">
-        <v>472.05</v>
+        <v>145.721</v>
       </c>
       <c r="W32">
-        <v>-85.41</v>
+        <v>-12.391</v>
       </c>
       <c r="X32">
-        <v>-380.89600000000002</v>
+        <v>-65.998000000000005</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>0.505</v>
+        <v>-4.7880000000000003</v>
       </c>
       <c r="AA32">
-        <v>418.25200000000001</v>
+        <v>71.299000000000007</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43316</v>
+        <v>39753</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>389.404</v>
+        <v>57.27</v>
       </c>
       <c r="D33">
-        <v>3737.9259999999999</v>
+        <v>1555.287</v>
       </c>
       <c r="E33">
-        <v>121.508</v>
+        <v>47.103999999999999</v>
       </c>
       <c r="F33">
-        <v>1070.943</v>
+        <v>356.83600000000001</v>
       </c>
       <c r="G33">
-        <v>3379.6550000000002</v>
+        <v>1456.6559999999999</v>
       </c>
       <c r="H33">
-        <v>5963.7560000000003</v>
+        <v>2482.6390000000001</v>
       </c>
       <c r="I33">
-        <v>1184.422</v>
+        <v>686.40099999999995</v>
       </c>
       <c r="J33">
-        <v>312.21699999999998</v>
+        <v>150</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3465,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>1978.1469999999999</v>
+        <v>1098.7550000000001</v>
       </c>
       <c r="O33">
-        <v>2779.1460000000002</v>
+        <v>1496.749</v>
       </c>
       <c r="P33">
-        <v>397.20600000000002</v>
+        <v>150</v>
       </c>
       <c r="Q33">
-        <v>84.393000000000001</v>
+        <v>-78.313000000000002</v>
       </c>
       <c r="R33">
-        <v>43316</v>
+        <v>39753</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>3184.61</v>
+        <v>985.89</v>
       </c>
       <c r="U33">
-        <v>1386.9349999999999</v>
+        <v>231.24100000000001</v>
       </c>
       <c r="V33">
-        <v>542.13400000000001</v>
+        <v>62.277000000000001</v>
       </c>
       <c r="W33">
-        <v>-84.561000000000007</v>
+        <v>-12.273999999999999</v>
       </c>
       <c r="X33">
-        <v>-358.899</v>
+        <v>-81.435000000000002</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>2.8410000000000002</v>
       </c>
       <c r="AA33">
-        <v>389.404</v>
+        <v>57.27</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43407</v>
+        <v>39844</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>338.108</v>
+        <v>97.387</v>
       </c>
       <c r="D34">
-        <v>3549.6080000000002</v>
+        <v>1734.1120000000001</v>
       </c>
       <c r="E34">
-        <v>117.825</v>
+        <v>41.17</v>
       </c>
       <c r="F34">
-        <v>1002.277</v>
+        <v>412.76600000000002</v>
       </c>
       <c r="G34">
-        <v>3623.3069999999998</v>
+        <v>1313.7149999999999</v>
       </c>
       <c r="H34">
-        <v>6235.7669999999998</v>
+        <v>2355.511</v>
       </c>
       <c r="I34">
-        <v>1394.029</v>
+        <v>536.745</v>
       </c>
       <c r="J34">
-        <v>312.32799999999997</v>
+        <v>150</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,78 +3548,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>2252.2939999999999</v>
+        <v>955.25900000000001</v>
       </c>
       <c r="O34">
-        <v>3048.6039999999998</v>
+        <v>1359.1420000000001</v>
       </c>
       <c r="P34">
-        <v>397.32499999999999</v>
+        <v>150</v>
       </c>
       <c r="Q34">
-        <v>-37.942</v>
+        <v>90.114000000000004</v>
       </c>
       <c r="R34">
-        <v>43407</v>
+        <v>39844</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>13500</v>
       </c>
       <c r="T34">
-        <v>3187.163</v>
+        <v>996.36900000000003</v>
       </c>
       <c r="U34">
-        <v>1349.1959999999999</v>
+        <v>321.35500000000002</v>
       </c>
       <c r="V34">
-        <v>435.88799999999998</v>
+        <v>214.60599999999999</v>
       </c>
       <c r="W34">
-        <v>-83.891999999999996</v>
+        <v>-12.641</v>
       </c>
       <c r="X34">
-        <v>-359.33300000000003</v>
+        <v>-80.188999999999993</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>0.23400000000000001</v>
+        <v>4.6470000000000002</v>
       </c>
       <c r="AA34">
-        <v>338.108</v>
+        <v>97.387</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43498</v>
+        <v>39935</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>441.69299999999998</v>
+        <v>91.387</v>
       </c>
       <c r="D35">
-        <v>4107.3879999999999</v>
+        <v>1691.5989999999999</v>
       </c>
       <c r="E35">
-        <v>106.911</v>
+        <v>50.097999999999999</v>
       </c>
       <c r="F35">
-        <v>1687.444</v>
+        <v>422.89</v>
       </c>
       <c r="G35">
-        <v>3404.0189999999998</v>
+        <v>1507.1379999999999</v>
       </c>
       <c r="H35">
-        <v>6073.6909999999998</v>
+        <v>2542.12</v>
       </c>
       <c r="I35">
-        <v>1177.104</v>
+        <v>682.25099999999998</v>
       </c>
       <c r="J35">
-        <v>312.44</v>
+        <v>150</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3511,78 +3631,78 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>2009.4839999999999</v>
+        <v>1088.7190000000001</v>
       </c>
       <c r="O35">
-        <v>2767.9450000000002</v>
+        <v>1506.3620000000001</v>
       </c>
       <c r="P35">
-        <v>312.44</v>
+        <v>150</v>
       </c>
       <c r="Q35">
-        <v>66.489999999999995</v>
+        <v>137.947</v>
       </c>
       <c r="R35">
-        <v>43498</v>
+        <v>39935</v>
       </c>
       <c r="S35">
-        <v>88100</v>
+        <v>0</v>
       </c>
       <c r="T35">
-        <v>3305.7460000000001</v>
+        <v>1035.758</v>
       </c>
       <c r="U35">
-        <v>1412.912</v>
+        <v>459.30200000000002</v>
       </c>
       <c r="V35">
-        <v>616.60500000000002</v>
+        <v>240.732</v>
       </c>
       <c r="W35">
-        <v>-83.325999999999993</v>
+        <v>-13.967000000000001</v>
       </c>
       <c r="X35">
-        <v>-432.33300000000003</v>
+        <v>-73.457999999999998</v>
       </c>
       <c r="Y35">
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>2.75</v>
+        <v>4.577</v>
       </c>
       <c r="AA35">
-        <v>441.69299999999998</v>
+        <v>91.387</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43589</v>
+        <v>40026</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>421.142</v>
+        <v>103.407</v>
       </c>
       <c r="D36">
-        <v>3796.6419999999998</v>
+        <v>1768.636</v>
       </c>
       <c r="E36">
-        <v>121.607</v>
+        <v>49.375</v>
       </c>
       <c r="F36">
-        <v>1094.9739999999999</v>
+        <v>457.5</v>
       </c>
       <c r="G36">
-        <v>3462.7049999999999</v>
+        <v>1574.7729999999999</v>
       </c>
       <c r="H36">
-        <v>9049.1200000000008</v>
+        <v>2600.6489999999999</v>
       </c>
       <c r="I36">
-        <v>1296.183</v>
+        <v>702.97699999999998</v>
       </c>
       <c r="J36">
-        <v>312.55200000000002</v>
+        <v>150</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>2593.511</v>
+        <v>1106.6369999999999</v>
       </c>
       <c r="O36">
-        <v>5781.5940000000001</v>
+        <v>1531.2270000000001</v>
       </c>
       <c r="P36">
-        <v>3363.982</v>
+        <v>150</v>
       </c>
       <c r="Q36">
-        <v>-45.561999999999998</v>
+        <v>61.122</v>
       </c>
       <c r="R36">
-        <v>43589</v>
+        <v>40026</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>3267.5259999999998</v>
+        <v>1069.422</v>
       </c>
       <c r="U36">
-        <v>1366.5920000000001</v>
+        <v>520.42399999999998</v>
       </c>
       <c r="V36">
-        <v>508.98700000000002</v>
+        <v>173.23599999999999</v>
       </c>
       <c r="W36">
-        <v>-93.721999999999994</v>
+        <v>-13.858000000000001</v>
       </c>
       <c r="X36">
-        <v>-459.43700000000001</v>
+        <v>-77.531000000000006</v>
       </c>
       <c r="Y36">
-        <v>2514.5300000000002</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>0.51700000000000002</v>
+        <v>12.234</v>
       </c>
       <c r="AA36">
-        <v>421.142</v>
+        <v>103.407</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43680</v>
+        <v>40117</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>412.721</v>
+        <v>105.08</v>
       </c>
       <c r="D37">
-        <v>3979.8690000000001</v>
+        <v>1744.1389999999999</v>
       </c>
       <c r="E37">
-        <v>130.43899999999999</v>
+        <v>47.496000000000002</v>
       </c>
       <c r="F37">
-        <v>1136.019</v>
+        <v>459.28699999999998</v>
       </c>
       <c r="G37">
-        <v>3515.9180000000001</v>
+        <v>1714.06</v>
       </c>
       <c r="H37">
-        <v>9151.9470000000001</v>
+        <v>2741.47</v>
       </c>
       <c r="I37">
-        <v>1359.829</v>
+        <v>767.77099999999996</v>
       </c>
       <c r="J37">
-        <v>312.66500000000002</v>
+        <v>150</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>2679.4079999999999</v>
+        <v>1207.8720000000001</v>
       </c>
       <c r="O37">
-        <v>5855.683</v>
+        <v>1634.277</v>
       </c>
       <c r="P37">
-        <v>3358.7359999999999</v>
+        <v>150</v>
       </c>
       <c r="Q37">
-        <v>10.884</v>
+        <v>55.738</v>
       </c>
       <c r="R37">
-        <v>43680</v>
+        <v>40117</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>3296.2640000000001</v>
+        <v>1107.193</v>
       </c>
       <c r="U37">
-        <v>1382.0250000000001</v>
+        <v>576.16200000000003</v>
       </c>
       <c r="V37">
-        <v>574.476</v>
+        <v>169.91399999999999</v>
       </c>
       <c r="W37">
-        <v>-92.92</v>
+        <v>-13.734999999999999</v>
       </c>
       <c r="X37">
-        <v>-408.90699999999998</v>
+        <v>-74.239999999999995</v>
       </c>
       <c r="Y37">
-        <v>2496.23</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>3.508</v>
       </c>
       <c r="AA37">
-        <v>412.721</v>
+        <v>105.08</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43771</v>
+        <v>40208</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>370.93200000000002</v>
+        <v>142.88300000000001</v>
       </c>
       <c r="D38">
-        <v>3849.1170000000002</v>
+        <v>1979.8389999999999</v>
       </c>
       <c r="E38">
-        <v>124.85299999999999</v>
+        <v>44.234000000000002</v>
       </c>
       <c r="F38">
-        <v>1082.6849999999999</v>
+        <v>517.25800000000004</v>
       </c>
       <c r="G38">
-        <v>3606.6619999999998</v>
+        <v>1745.4469999999999</v>
       </c>
       <c r="H38">
-        <v>9415.8410000000003</v>
+        <v>2768.6329999999998</v>
       </c>
       <c r="I38">
-        <v>1480.2049999999999</v>
+        <v>658.29899999999998</v>
       </c>
       <c r="J38">
-        <v>312.77800000000002</v>
+        <v>150</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>2858.2379999999998</v>
+        <v>1190.5139999999999</v>
       </c>
       <c r="O38">
-        <v>6139.0619999999999</v>
+        <v>1611.34</v>
       </c>
       <c r="P38">
-        <v>3473.5830000000001</v>
+        <v>150</v>
       </c>
       <c r="Q38">
-        <v>-239.874</v>
+        <v>192.18100000000001</v>
       </c>
       <c r="R38">
-        <v>43771</v>
+        <v>40208</v>
       </c>
       <c r="S38">
-        <v>0</v>
+        <v>13300</v>
       </c>
       <c r="T38">
-        <v>3276.779</v>
+        <v>1157.2929999999999</v>
       </c>
       <c r="U38">
-        <v>1142.7090000000001</v>
+        <v>768.34299999999996</v>
       </c>
       <c r="V38">
-        <v>327.46699999999998</v>
+        <v>304.50200000000001</v>
       </c>
       <c r="W38">
-        <v>-91.727999999999994</v>
+        <v>-13.641999999999999</v>
       </c>
       <c r="X38">
-        <v>-416.404</v>
+        <v>-79.334000000000003</v>
       </c>
       <c r="Y38">
-        <v>2601.3719999999998</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>1.325</v>
       </c>
       <c r="AA38">
-        <v>370.93200000000002</v>
+        <v>142.88300000000001</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43862</v>
+        <v>40299</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>456.13299999999998</v>
+        <v>142.34700000000001</v>
       </c>
       <c r="D39">
-        <v>4413.4449999999997</v>
+        <v>1934.778</v>
       </c>
       <c r="E39">
-        <v>112.93600000000001</v>
+        <v>54.268000000000001</v>
       </c>
       <c r="F39">
-        <v>2003.191</v>
+        <v>528.69600000000003</v>
       </c>
       <c r="G39">
-        <v>3432.828</v>
+        <v>1859.7439999999999</v>
       </c>
       <c r="H39">
-        <v>9348.3670000000002</v>
+        <v>2882.607</v>
       </c>
       <c r="I39">
-        <v>1296.482</v>
+        <v>748.779</v>
       </c>
       <c r="J39">
-        <v>312.89100000000002</v>
+        <v>150</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3843,164 +3963,164 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>2701.9340000000002</v>
+        <v>1229.5509999999999</v>
       </c>
       <c r="O39">
-        <v>5989.1180000000004</v>
+        <v>1653.2539999999999</v>
       </c>
       <c r="P39">
-        <v>3487.9</v>
+        <v>150</v>
       </c>
       <c r="Q39">
-        <v>207.88300000000001</v>
+        <v>55.308999999999997</v>
       </c>
       <c r="R39">
-        <v>43862</v>
+        <v>40299</v>
       </c>
       <c r="S39">
-        <v>92500</v>
+        <v>0</v>
       </c>
       <c r="T39">
-        <v>3359.2489999999998</v>
+        <v>1229.3530000000001</v>
       </c>
       <c r="U39">
-        <v>1351.2049999999999</v>
+        <v>823.65200000000004</v>
       </c>
       <c r="V39">
-        <v>760.61599999999999</v>
+        <v>189.18100000000001</v>
       </c>
       <c r="W39">
-        <v>-91.423000000000002</v>
+        <v>-19.613</v>
       </c>
       <c r="X39">
-        <v>-398.50099999999998</v>
+        <v>-99.200999999999993</v>
       </c>
       <c r="Y39">
-        <v>2610.5279999999998</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>0.84799999999999998</v>
       </c>
       <c r="AA39">
-        <v>456.13299999999998</v>
+        <v>142.34700000000001</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>43953</v>
+        <v>40390</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>-305.84199999999998</v>
+        <v>129.27600000000001</v>
       </c>
       <c r="D40">
-        <v>1842.673</v>
+        <v>1911.76</v>
       </c>
       <c r="E40">
-        <v>49.624000000000002</v>
+        <v>53.079000000000001</v>
       </c>
       <c r="F40">
-        <v>-47.317999999999998</v>
+        <v>515.97500000000002</v>
       </c>
       <c r="G40">
-        <v>4587.915</v>
+        <v>1814.847</v>
       </c>
       <c r="H40">
-        <v>10728.046</v>
+        <v>2850.8629999999998</v>
       </c>
       <c r="I40">
-        <v>706.26700000000005</v>
+        <v>745.46100000000001</v>
       </c>
       <c r="J40">
-        <v>2285.614</v>
+        <v>150</v>
       </c>
       <c r="K40">
-        <v>805</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>-0.61499999999999999</v>
+        <v>0</v>
       </c>
       <c r="M40">
         <v>0</v>
       </c>
       <c r="N40">
-        <v>2623.6170000000002</v>
+        <v>1179.6020000000001</v>
       </c>
       <c r="O40">
-        <v>7910.6540000000005</v>
+        <v>1594.0139999999999</v>
       </c>
       <c r="P40">
-        <v>6293.2150000000001</v>
+        <v>150.126</v>
       </c>
       <c r="Q40">
-        <v>1318.9559999999999</v>
+        <v>-50.981000000000002</v>
       </c>
       <c r="R40">
-        <v>43953</v>
+        <v>40390</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>2817.3919999999998</v>
+        <v>1256.8489999999999</v>
       </c>
       <c r="U40">
-        <v>2669.5349999999999</v>
+        <v>772.67100000000005</v>
       </c>
       <c r="V40">
-        <v>-1058.442</v>
+        <v>115.65600000000001</v>
       </c>
       <c r="W40">
-        <v>-101.414</v>
+        <v>-19.491</v>
       </c>
       <c r="X40">
-        <v>2517.127</v>
+        <v>-111.364</v>
       </c>
       <c r="Y40">
-        <v>2631.7689999999998</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>-2.67</v>
       </c>
       <c r="AA40">
-        <v>-305.84199999999998</v>
+        <v>129.27600000000001</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44044</v>
+        <v>40481</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>22.047000000000001</v>
+        <v>121.378</v>
       </c>
       <c r="D41">
-        <v>2684.712</v>
+        <v>1874.32</v>
       </c>
       <c r="E41">
-        <v>162.72300000000001</v>
+        <v>53.93</v>
       </c>
       <c r="F41">
-        <v>604.59199999999998</v>
+        <v>508.80700000000002</v>
       </c>
       <c r="G41">
-        <v>5347.3609999999999</v>
+        <v>1904.8440000000001</v>
       </c>
       <c r="H41">
-        <v>11322.245000000001</v>
+        <v>2962.5889999999999</v>
       </c>
       <c r="I41">
-        <v>1009.704</v>
+        <v>767.74099999999999</v>
       </c>
       <c r="J41">
-        <v>2286.2950000000001</v>
+        <v>150</v>
       </c>
       <c r="K41">
-        <v>802.50699999999995</v>
+        <v>0</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,129 +4129,3449 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>3153.0720000000001</v>
+        <v>1247.6300000000001</v>
       </c>
       <c r="O41">
-        <v>8455.0460000000003</v>
+        <v>1677.578</v>
       </c>
       <c r="P41">
-        <v>6269.3329999999996</v>
+        <v>150.054</v>
       </c>
       <c r="Q41">
-        <v>1123.549</v>
+        <v>-39.872999999999998</v>
       </c>
       <c r="R41">
-        <v>44044</v>
+        <v>40481</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>2867.1990000000001</v>
+        <v>1285.011</v>
       </c>
       <c r="U41">
-        <v>3793.0430000000001</v>
+        <v>732.798</v>
       </c>
       <c r="V41">
-        <v>1230.8630000000001</v>
+        <v>121.92400000000001</v>
       </c>
       <c r="W41">
-        <v>0</v>
+        <v>-19.210999999999999</v>
       </c>
       <c r="X41">
-        <v>3.004</v>
+        <v>-102.70099999999999</v>
       </c>
       <c r="Y41">
-        <v>2601.2539999999999</v>
+        <v>0.02</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>2.4409999999999998</v>
       </c>
       <c r="AA41">
-        <v>22.047000000000001</v>
+        <v>121.378</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44135</v>
+        <v>40572</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>161.79599999999999</v>
+      </c>
+      <c r="D42">
+        <v>2145.2420000000002</v>
+      </c>
+      <c r="E42">
+        <v>45.384</v>
+      </c>
+      <c r="F42">
+        <v>582.88699999999994</v>
+      </c>
+      <c r="G42">
+        <v>2043.239</v>
+      </c>
+      <c r="H42">
+        <v>3116.2040000000002</v>
+      </c>
+      <c r="I42">
+        <v>714.05499999999995</v>
+      </c>
+      <c r="J42">
+        <v>150</v>
+      </c>
+      <c r="K42">
+        <v>53.4</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1352.32</v>
+      </c>
+      <c r="O42">
+        <v>1783.5119999999999</v>
+      </c>
+      <c r="P42">
+        <v>203.4</v>
+      </c>
+      <c r="Q42">
+        <v>101.126</v>
+      </c>
+      <c r="R42">
+        <v>40572</v>
+      </c>
+      <c r="S42">
+        <v>14000</v>
+      </c>
+      <c r="T42">
+        <v>1332.692</v>
+      </c>
+      <c r="U42">
+        <v>833.92399999999998</v>
+      </c>
+      <c r="V42">
+        <v>246.30500000000001</v>
+      </c>
+      <c r="W42">
+        <v>-19.006</v>
+      </c>
+      <c r="X42">
+        <v>-97.373999999999995</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>1.1870000000000001</v>
+      </c>
+      <c r="AA42">
+        <v>161.79599999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40663</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>172.97300000000001</v>
+      </c>
+      <c r="D43">
+        <v>2074.576</v>
+      </c>
+      <c r="E43">
+        <v>61.683</v>
+      </c>
+      <c r="F43">
+        <v>593.37</v>
+      </c>
+      <c r="G43">
+        <v>1997.241</v>
+      </c>
+      <c r="H43">
+        <v>3101.9940000000001</v>
+      </c>
+      <c r="I43">
+        <v>742.6</v>
+      </c>
+      <c r="J43">
+        <v>150</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>1238.7940000000001</v>
+      </c>
+      <c r="O43">
+        <v>1695.8879999999999</v>
+      </c>
+      <c r="P43">
+        <v>150</v>
+      </c>
+      <c r="Q43">
+        <v>-162.91900000000001</v>
+      </c>
+      <c r="R43">
+        <v>40663</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>1406.106</v>
+      </c>
+      <c r="U43">
+        <v>671.005</v>
+      </c>
+      <c r="V43">
+        <v>41.051000000000002</v>
+      </c>
+      <c r="W43">
+        <v>-25.905000000000001</v>
+      </c>
+      <c r="X43">
+        <v>-135.68799999999999</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>1.8140000000000001</v>
+      </c>
+      <c r="AA43">
+        <v>172.97300000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40754</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>148.27600000000001</v>
+      </c>
+      <c r="D44">
+        <v>2089.41</v>
+      </c>
+      <c r="E44">
+        <v>57.942999999999998</v>
+      </c>
+      <c r="F44">
+        <v>565.10299999999995</v>
+      </c>
+      <c r="G44">
+        <v>1869.8620000000001</v>
+      </c>
+      <c r="H44">
+        <v>3055.2750000000001</v>
+      </c>
+      <c r="I44">
+        <v>709.14300000000003</v>
+      </c>
+      <c r="J44">
+        <v>150</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>1164.731</v>
+      </c>
+      <c r="O44">
+        <v>1629.346</v>
+      </c>
+      <c r="P44">
+        <v>150</v>
+      </c>
+      <c r="Q44">
+        <v>-158.28899999999999</v>
+      </c>
+      <c r="R44">
+        <v>40754</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>1425.9290000000001</v>
+      </c>
+      <c r="U44">
+        <v>512.71600000000001</v>
+      </c>
+      <c r="V44">
+        <v>120.614</v>
+      </c>
+      <c r="W44">
+        <v>-25.718</v>
+      </c>
+      <c r="X44">
+        <v>-138.16800000000001</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>8.3539999999999992</v>
+      </c>
+      <c r="AA44">
+        <v>148.27600000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40845</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>143.96899999999999</v>
+      </c>
+      <c r="D45">
+        <v>2046.4269999999999</v>
+      </c>
+      <c r="E45">
+        <v>62.384</v>
+      </c>
+      <c r="F45">
+        <v>556.21400000000006</v>
+      </c>
+      <c r="G45">
+        <v>1958.1</v>
+      </c>
+      <c r="H45">
+        <v>3181.944</v>
+      </c>
+      <c r="I45">
+        <v>759.70799999999997</v>
+      </c>
+      <c r="J45">
+        <v>150</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>1269.0719999999999</v>
+      </c>
+      <c r="O45">
+        <v>1734.693</v>
+      </c>
+      <c r="P45">
+        <v>150</v>
+      </c>
+      <c r="Q45">
+        <v>40.207999999999998</v>
+      </c>
+      <c r="R45">
+        <v>40845</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>1447.251</v>
+      </c>
+      <c r="U45">
+        <v>552.92399999999998</v>
+      </c>
+      <c r="V45">
+        <v>252.02600000000001</v>
+      </c>
+      <c r="W45">
+        <v>-25.366</v>
+      </c>
+      <c r="X45">
+        <v>-133.946</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="AA45">
+        <v>143.96899999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40936</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>191.952</v>
+      </c>
+      <c r="D46">
+        <v>2397.8780000000002</v>
+      </c>
+      <c r="E46">
+        <v>50.847999999999999</v>
+      </c>
+      <c r="F46">
+        <v>652.84400000000005</v>
+      </c>
+      <c r="G46">
+        <v>1924.3710000000001</v>
+      </c>
+      <c r="H46">
+        <v>3301.2089999999998</v>
+      </c>
+      <c r="I46">
+        <v>761.71699999999998</v>
+      </c>
+      <c r="J46">
+        <v>150</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>1346.0519999999999</v>
+      </c>
+      <c r="O46">
+        <v>1808.1969999999999</v>
+      </c>
+      <c r="P46">
+        <v>150</v>
+      </c>
+      <c r="Q46">
+        <v>96.911000000000001</v>
+      </c>
+      <c r="R46">
+        <v>40936</v>
+      </c>
+      <c r="S46">
+        <v>14900</v>
+      </c>
+      <c r="T46">
+        <v>1493.0119999999999</v>
+      </c>
+      <c r="U46">
+        <v>649.83500000000004</v>
+      </c>
+      <c r="V46">
+        <v>406.41399999999999</v>
+      </c>
+      <c r="W46">
+        <v>-25.053000000000001</v>
+      </c>
+      <c r="X46">
+        <v>-124.624</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-6.3760000000000003</v>
+      </c>
+      <c r="AA46">
+        <v>191.952</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>41027</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>208.613</v>
+      </c>
+      <c r="D47">
+        <v>2356.8409999999999</v>
+      </c>
+      <c r="E47">
+        <v>66.632000000000005</v>
+      </c>
+      <c r="F47">
+        <v>677.71400000000006</v>
+      </c>
+      <c r="G47">
+        <v>2058.9850000000001</v>
+      </c>
+      <c r="H47">
+        <v>3457.4859999999999</v>
+      </c>
+      <c r="I47">
+        <v>830.04399999999998</v>
+      </c>
+      <c r="J47">
+        <v>150</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>1370.6369999999999</v>
+      </c>
+      <c r="O47">
+        <v>1846.8510000000001</v>
+      </c>
+      <c r="P47">
+        <v>150</v>
+      </c>
+      <c r="Q47">
+        <v>91.281999999999996</v>
+      </c>
+      <c r="R47">
+        <v>41027</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>1610.635</v>
+      </c>
+      <c r="U47">
+        <v>741.11699999999996</v>
+      </c>
+      <c r="V47">
+        <v>297.33</v>
+      </c>
+      <c r="W47">
+        <v>-31.719000000000001</v>
+      </c>
+      <c r="X47">
+        <v>-134.839</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="AA47">
+        <v>208.613</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41118</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>182.024</v>
+      </c>
+      <c r="D48">
+        <v>2340.855</v>
+      </c>
+      <c r="E48">
+        <v>65.730999999999995</v>
+      </c>
+      <c r="F48">
+        <v>651.21199999999999</v>
+      </c>
+      <c r="G48">
+        <v>2117.9920000000002</v>
+      </c>
+      <c r="H48">
+        <v>3560.163</v>
+      </c>
+      <c r="I48">
+        <v>885.89200000000005</v>
+      </c>
+      <c r="J48">
+        <v>150</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>1415.136</v>
+      </c>
+      <c r="O48">
+        <v>1896.01</v>
+      </c>
+      <c r="P48">
+        <v>150</v>
+      </c>
+      <c r="Q48">
+        <v>-20.071000000000002</v>
+      </c>
+      <c r="R48">
+        <v>41118</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>1664.153</v>
+      </c>
+      <c r="U48">
+        <v>721.04600000000005</v>
+      </c>
+      <c r="V48">
+        <v>206.833</v>
+      </c>
+      <c r="W48">
+        <v>-31.542999999999999</v>
+      </c>
+      <c r="X48">
+        <v>-141.31800000000001</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="AA48">
+        <v>182.024</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41209</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>159.524</v>
+      </c>
+      <c r="D49">
+        <v>2262.723</v>
+      </c>
+      <c r="E49">
+        <v>68.492999999999995</v>
+      </c>
+      <c r="F49">
+        <v>613.726</v>
+      </c>
+      <c r="G49">
+        <v>2150.87</v>
+      </c>
+      <c r="H49">
+        <v>3647.9369999999999</v>
+      </c>
+      <c r="I49">
+        <v>886.62900000000002</v>
+      </c>
+      <c r="J49">
+        <v>150</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1466.588</v>
+      </c>
+      <c r="O49">
+        <v>1950.202</v>
+      </c>
+      <c r="P49">
+        <v>150</v>
+      </c>
+      <c r="Q49">
+        <v>-97.224000000000004</v>
+      </c>
+      <c r="R49">
+        <v>41209</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>1697.7349999999999</v>
+      </c>
+      <c r="U49">
+        <v>623.822</v>
+      </c>
+      <c r="V49">
+        <v>142.107</v>
+      </c>
+      <c r="W49">
+        <v>-31.292000000000002</v>
+      </c>
+      <c r="X49">
+        <v>-139.167</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0.105</v>
+      </c>
+      <c r="AA49">
+        <v>159.524</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41307</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>236.602</v>
+      </c>
+      <c r="D50">
+        <v>2760.6460000000002</v>
+      </c>
+      <c r="E50">
+        <v>59.616999999999997</v>
+      </c>
+      <c r="F50">
+        <v>1173.585</v>
+      </c>
+      <c r="G50">
+        <v>2031.4269999999999</v>
+      </c>
+      <c r="H50">
+        <v>3670.5610000000001</v>
+      </c>
+      <c r="I50">
+        <v>807.53399999999999</v>
+      </c>
+      <c r="J50">
+        <v>150</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1422.5820000000001</v>
+      </c>
+      <c r="O50">
+        <v>1903.6980000000001</v>
+      </c>
+      <c r="P50">
+        <v>150</v>
+      </c>
+      <c r="Q50">
+        <v>22.939</v>
+      </c>
+      <c r="R50">
+        <v>41307</v>
+      </c>
+      <c r="S50">
+        <v>16000</v>
+      </c>
+      <c r="T50">
+        <v>1766.8630000000001</v>
+      </c>
+      <c r="U50">
+        <v>646.76099999999997</v>
+      </c>
+      <c r="V50">
+        <v>333.37400000000002</v>
+      </c>
+      <c r="W50">
+        <v>-31.14</v>
+      </c>
+      <c r="X50">
+        <v>-141.66999999999999</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0.432</v>
+      </c>
+      <c r="AA50">
+        <v>236.602</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41398</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>234.61199999999999</v>
+      </c>
+      <c r="D51">
+        <v>2539.9140000000002</v>
+      </c>
+      <c r="E51">
+        <v>77.284000000000006</v>
+      </c>
+      <c r="F51">
+        <v>741.10299999999995</v>
+      </c>
+      <c r="G51">
+        <v>2153.1959999999999</v>
+      </c>
+      <c r="H51">
+        <v>3842.761</v>
+      </c>
+      <c r="I51">
+        <v>859.59500000000003</v>
+      </c>
+      <c r="J51">
+        <v>150</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>1467.202</v>
+      </c>
+      <c r="O51">
+        <v>1967.5</v>
+      </c>
+      <c r="P51">
+        <v>150</v>
+      </c>
+      <c r="Q51">
+        <v>67.412999999999997</v>
+      </c>
+      <c r="R51">
+        <v>41398</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>1875.261</v>
+      </c>
+      <c r="U51">
+        <v>714.17399999999998</v>
+      </c>
+      <c r="V51">
+        <v>352.85899999999998</v>
+      </c>
+      <c r="W51">
+        <v>-37.475000000000001</v>
+      </c>
+      <c r="X51">
+        <v>-175.74700000000001</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0.107</v>
+      </c>
+      <c r="AA51">
+        <v>234.61199999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41489</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>213.12100000000001</v>
+      </c>
+      <c r="D52">
+        <v>2551.277</v>
+      </c>
+      <c r="E52">
+        <v>79.201999999999998</v>
+      </c>
+      <c r="F52">
+        <v>727.5</v>
+      </c>
+      <c r="G52">
+        <v>2098.4769999999999</v>
+      </c>
+      <c r="H52">
+        <v>3908.4850000000001</v>
+      </c>
+      <c r="I52">
+        <v>938.05899999999997</v>
+      </c>
+      <c r="J52">
+        <v>150</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1471.8140000000001</v>
+      </c>
+      <c r="O52">
+        <v>1977.5150000000001</v>
+      </c>
+      <c r="P52">
+        <v>150</v>
+      </c>
+      <c r="Q52">
+        <v>-163.60900000000001</v>
+      </c>
+      <c r="R52">
+        <v>41489</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>1930.97</v>
+      </c>
+      <c r="U52">
+        <v>550.56500000000005</v>
+      </c>
+      <c r="V52">
+        <v>179.46899999999999</v>
+      </c>
+      <c r="W52">
+        <v>-37.128999999999998</v>
+      </c>
+      <c r="X52">
+        <v>-169.881</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>1.032</v>
+      </c>
+      <c r="AA52">
+        <v>213.12100000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41580</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>171.61799999999999</v>
+      </c>
+      <c r="D53">
+        <v>2398.1219999999998</v>
+      </c>
+      <c r="E53">
+        <v>72.819000000000003</v>
+      </c>
+      <c r="F53">
+        <v>651.88699999999994</v>
+      </c>
+      <c r="G53">
+        <v>2050.0889999999999</v>
+      </c>
+      <c r="H53">
+        <v>3946.723</v>
+      </c>
+      <c r="I53">
+        <v>908.79700000000003</v>
+      </c>
+      <c r="J53">
+        <v>150</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>1496.6969999999999</v>
+      </c>
+      <c r="O53">
+        <v>2005.596</v>
+      </c>
+      <c r="P53">
+        <v>150</v>
+      </c>
+      <c r="Q53">
+        <v>-178.29499999999999</v>
+      </c>
+      <c r="R53">
+        <v>41580</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>1941.127</v>
+      </c>
+      <c r="U53">
+        <v>372.27</v>
+      </c>
+      <c r="V53">
+        <v>148.893</v>
+      </c>
+      <c r="W53">
+        <v>-36.811</v>
+      </c>
+      <c r="X53">
+        <v>-173.179</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-12.000999999999999</v>
+      </c>
+      <c r="AA53">
+        <v>171.61799999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41671</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>217.953</v>
+      </c>
+      <c r="D54">
+        <v>2741.04</v>
+      </c>
+      <c r="E54">
+        <v>62.612000000000002</v>
+      </c>
+      <c r="F54">
+        <v>1183.8389999999999</v>
+      </c>
+      <c r="G54">
+        <v>1867.1590000000001</v>
+      </c>
+      <c r="H54">
+        <v>3896.797</v>
+      </c>
+      <c r="I54">
+        <v>779.45500000000004</v>
+      </c>
+      <c r="J54">
+        <v>150</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1393.057</v>
+      </c>
+      <c r="O54">
+        <v>1889.4949999999999</v>
+      </c>
+      <c r="P54">
+        <v>150</v>
+      </c>
+      <c r="Q54">
+        <v>50.898000000000003</v>
+      </c>
+      <c r="R54">
+        <v>41671</v>
+      </c>
+      <c r="S54">
+        <v>17400</v>
+      </c>
+      <c r="T54">
+        <v>2007.3019999999999</v>
+      </c>
+      <c r="U54">
+        <v>423.16800000000001</v>
+      </c>
+      <c r="V54">
+        <v>340.78199999999998</v>
+      </c>
+      <c r="W54">
+        <v>-36.502000000000002</v>
+      </c>
+      <c r="X54">
+        <v>-162.98099999999999</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="AA54">
+        <v>217.953</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41762</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>243.91300000000001</v>
+      </c>
+      <c r="D55">
+        <v>2680.5929999999998</v>
+      </c>
+      <c r="E55">
+        <v>84.492000000000004</v>
+      </c>
+      <c r="F55">
+        <v>772.40899999999999</v>
+      </c>
+      <c r="G55">
+        <v>2063.0219999999999</v>
+      </c>
+      <c r="H55">
+        <v>4151.5940000000001</v>
+      </c>
+      <c r="I55">
+        <v>930.57600000000002</v>
+      </c>
+      <c r="J55">
+        <v>150</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>1576.3530000000001</v>
+      </c>
+      <c r="O55">
+        <v>2076.3159999999998</v>
+      </c>
+      <c r="P55">
+        <v>150</v>
+      </c>
+      <c r="Q55">
+        <v>172.78200000000001</v>
+      </c>
+      <c r="R55">
+        <v>41762</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>2075.2779999999998</v>
+      </c>
+      <c r="U55">
+        <v>595.95000000000005</v>
+      </c>
+      <c r="V55">
+        <v>504.577</v>
+      </c>
+      <c r="W55">
+        <v>-42.581000000000003</v>
+      </c>
+      <c r="X55">
+        <v>-188.137</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>12.022</v>
+      </c>
+      <c r="AA55">
+        <v>243.91300000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41853</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>239.56100000000001</v>
+      </c>
+      <c r="D56">
+        <v>2729.5659999999998</v>
+      </c>
+      <c r="E56">
+        <v>85.218000000000004</v>
+      </c>
+      <c r="F56">
+        <v>785.54899999999998</v>
+      </c>
+      <c r="G56">
+        <v>2023.865</v>
+      </c>
+      <c r="H56">
+        <v>4167.8320000000003</v>
+      </c>
+      <c r="I56">
+        <v>967.91499999999996</v>
+      </c>
+      <c r="J56">
+        <v>150</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1532.1210000000001</v>
+      </c>
+      <c r="O56">
+        <v>2018.5050000000001</v>
+      </c>
+      <c r="P56">
+        <v>150</v>
+      </c>
+      <c r="Q56">
+        <v>-46.165999999999997</v>
+      </c>
+      <c r="R56">
+        <v>41853</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>2149.3270000000002</v>
+      </c>
+      <c r="U56">
+        <v>549.78399999999999</v>
+      </c>
+      <c r="V56">
+        <v>237.214</v>
+      </c>
+      <c r="W56">
+        <v>-42.3</v>
+      </c>
+      <c r="X56">
+        <v>-178.667</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>239.56100000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41944</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>192.72</v>
+      </c>
+      <c r="D57">
+        <v>2598.8200000000002</v>
+      </c>
+      <c r="E57">
+        <v>75.894999999999996</v>
+      </c>
+      <c r="F57">
+        <v>716.63499999999999</v>
+      </c>
+      <c r="G57">
+        <v>2302.4929999999999</v>
+      </c>
+      <c r="H57">
+        <v>4669.2420000000002</v>
+      </c>
+      <c r="I57">
+        <v>1131.7170000000001</v>
+      </c>
+      <c r="J57">
+        <v>398.339</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1766.924</v>
+      </c>
+      <c r="O57">
+        <v>2481.9459999999999</v>
+      </c>
+      <c r="P57">
+        <v>398.339</v>
+      </c>
+      <c r="Q57">
+        <v>21.794</v>
+      </c>
+      <c r="R57">
+        <v>41944</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>2187.2959999999998</v>
+      </c>
+      <c r="U57">
+        <v>571.57799999999997</v>
+      </c>
+      <c r="V57">
+        <v>240.191</v>
+      </c>
+      <c r="W57">
+        <v>-41.926000000000002</v>
+      </c>
+      <c r="X57">
+        <v>77.519000000000005</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>192.72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42035</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>248.53</v>
+      </c>
+      <c r="D58">
+        <v>3032.6979999999999</v>
+      </c>
+      <c r="E58">
+        <v>73.278000000000006</v>
+      </c>
+      <c r="F58">
+        <v>1281.029</v>
+      </c>
+      <c r="G58">
+        <v>2249.8389999999999</v>
+      </c>
+      <c r="H58">
+        <v>4687.37</v>
+      </c>
+      <c r="I58">
+        <v>1000.7</v>
+      </c>
+      <c r="J58">
+        <v>395.56200000000001</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1659.3679999999999</v>
+      </c>
+      <c r="O58">
+        <v>2408.16</v>
+      </c>
+      <c r="P58">
+        <v>395.56200000000001</v>
+      </c>
+      <c r="Q58">
+        <v>125.03</v>
+      </c>
+      <c r="R58">
+        <v>42035</v>
+      </c>
+      <c r="S58">
+        <v>71400</v>
+      </c>
+      <c r="T58">
+        <v>2279.21</v>
+      </c>
+      <c r="U58">
+        <v>696.60799999999995</v>
+      </c>
+      <c r="V58">
+        <v>390.88299999999998</v>
+      </c>
+      <c r="W58">
+        <v>-41.646999999999998</v>
+      </c>
+      <c r="X58">
+        <v>-171.14099999999999</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-1E-3</v>
+      </c>
+      <c r="AA58">
+        <v>248.53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42126</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>282.20499999999998</v>
+      </c>
+      <c r="D59">
+        <v>2938.1480000000001</v>
+      </c>
+      <c r="E59">
+        <v>88.257999999999996</v>
+      </c>
+      <c r="F59">
+        <v>870.69299999999998</v>
+      </c>
+      <c r="G59">
+        <v>2486.366</v>
+      </c>
+      <c r="H59">
+        <v>4936.049</v>
+      </c>
+      <c r="I59">
+        <v>1128.808</v>
+      </c>
+      <c r="J59">
+        <v>395.67700000000002</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>1825.0070000000001</v>
+      </c>
+      <c r="O59">
+        <v>2602.5500000000002</v>
+      </c>
+      <c r="P59">
+        <v>395.67700000000002</v>
+      </c>
+      <c r="Q59">
+        <v>64.748000000000005</v>
+      </c>
+      <c r="R59">
+        <v>42126</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>2333.4989999999998</v>
+      </c>
+      <c r="U59">
+        <v>761.35599999999999</v>
+      </c>
+      <c r="V59">
+        <v>413.988</v>
+      </c>
+      <c r="W59">
+        <v>-48.743000000000002</v>
+      </c>
+      <c r="X59">
+        <v>-242.18600000000001</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-0.11700000000000001</v>
+      </c>
+      <c r="AA59">
+        <v>282.20499999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42217</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>258.63900000000001</v>
+      </c>
+      <c r="D60">
+        <v>2968.27</v>
+      </c>
+      <c r="E60">
+        <v>88.442999999999998</v>
+      </c>
+      <c r="F60">
+        <v>848.79</v>
+      </c>
+      <c r="G60">
+        <v>2370.0329999999999</v>
+      </c>
+      <c r="H60">
+        <v>4824.3040000000001</v>
+      </c>
+      <c r="I60">
+        <v>1044.875</v>
+      </c>
+      <c r="J60">
+        <v>395.79300000000001</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1675.6569999999999</v>
+      </c>
+      <c r="O60">
+        <v>2437.79</v>
+      </c>
+      <c r="P60">
+        <v>395.79300000000001</v>
+      </c>
+      <c r="Q60">
+        <v>-131.06800000000001</v>
+      </c>
+      <c r="R60">
+        <v>42217</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>2386.5140000000001</v>
+      </c>
+      <c r="U60">
+        <v>630.28800000000001</v>
+      </c>
+      <c r="V60">
+        <v>176.38300000000001</v>
+      </c>
+      <c r="W60">
+        <v>-48.198999999999998</v>
+      </c>
+      <c r="X60">
+        <v>-221.208</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>1E-3</v>
+      </c>
+      <c r="AA60">
+        <v>258.63900000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42308</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>215.65600000000001</v>
+      </c>
+      <c r="D61">
+        <v>2782.855</v>
+      </c>
+      <c r="E61">
+        <v>81.323999999999998</v>
+      </c>
+      <c r="F61">
+        <v>779.50800000000004</v>
+      </c>
+      <c r="G61">
+        <v>2434.59</v>
+      </c>
+      <c r="H61">
+        <v>4903.7709999999997</v>
+      </c>
+      <c r="I61">
+        <v>1053.0129999999999</v>
+      </c>
+      <c r="J61">
+        <v>395.90899999999999</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1749.479</v>
+      </c>
+      <c r="O61">
+        <v>2509.6889999999999</v>
+      </c>
+      <c r="P61">
+        <v>395.90899999999999</v>
+      </c>
+      <c r="Q61">
+        <v>-144.58500000000001</v>
+      </c>
+      <c r="R61">
+        <v>42308</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>2394.0819999999999</v>
+      </c>
+      <c r="U61">
+        <v>485.70299999999997</v>
+      </c>
+      <c r="V61">
+        <v>171.65600000000001</v>
+      </c>
+      <c r="W61">
+        <v>-47.890999999999998</v>
+      </c>
+      <c r="X61">
+        <v>-223.77199999999999</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>1E-3</v>
+      </c>
+      <c r="AA61">
+        <v>215.65600000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42399</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>264.161</v>
+      </c>
+      <c r="D62">
+        <v>3250.7260000000001</v>
+      </c>
+      <c r="E62">
+        <v>73.626999999999995</v>
+      </c>
+      <c r="F62">
+        <v>1337.335</v>
+      </c>
+      <c r="G62">
+        <v>2372.1950000000002</v>
+      </c>
+      <c r="H62">
+        <v>4869.1189999999997</v>
+      </c>
+      <c r="I62">
+        <v>945.55899999999997</v>
+      </c>
+      <c r="J62">
+        <v>396.02499999999998</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1602.847</v>
+      </c>
+      <c r="O62">
+        <v>2397.1280000000002</v>
+      </c>
+      <c r="P62">
+        <v>396.02499999999998</v>
+      </c>
+      <c r="Q62">
+        <v>275.899</v>
+      </c>
+      <c r="R62">
+        <v>42399</v>
+      </c>
+      <c r="S62">
+        <v>77800</v>
+      </c>
+      <c r="T62">
+        <v>2471.991</v>
+      </c>
+      <c r="U62">
+        <v>761.60199999999998</v>
+      </c>
+      <c r="V62">
+        <v>564.22500000000002</v>
+      </c>
+      <c r="W62">
+        <v>-47.478999999999999</v>
+      </c>
+      <c r="X62">
+        <v>-211.583</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0.501</v>
+      </c>
+      <c r="AA62">
+        <v>264.161</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42490</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>290.63400000000001</v>
+      </c>
+      <c r="D63">
+        <v>3088.9949999999999</v>
+      </c>
+      <c r="E63">
+        <v>96.244</v>
+      </c>
+      <c r="F63">
+        <v>912.79</v>
+      </c>
+      <c r="G63">
+        <v>2629.123</v>
+      </c>
+      <c r="H63">
+        <v>5114.1769999999997</v>
+      </c>
+      <c r="I63">
+        <v>1056.2570000000001</v>
+      </c>
+      <c r="J63">
+        <v>396.142</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>1750.896</v>
+      </c>
+      <c r="O63">
+        <v>2574.7359999999999</v>
+      </c>
+      <c r="P63">
+        <v>396.142</v>
+      </c>
+      <c r="Q63">
+        <v>148.423</v>
+      </c>
+      <c r="R63">
+        <v>42490</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>2539.4409999999998</v>
+      </c>
+      <c r="U63">
+        <v>910.02499999999998</v>
+      </c>
+      <c r="V63">
+        <v>469.08</v>
+      </c>
+      <c r="W63">
+        <v>-54.235999999999997</v>
+      </c>
+      <c r="X63">
+        <v>-240.88900000000001</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>290.63400000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42581</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>281.90600000000001</v>
+      </c>
+      <c r="D64">
+        <v>3180.9169999999999</v>
+      </c>
+      <c r="E64">
+        <v>97.138999999999996</v>
+      </c>
+      <c r="F64">
+        <v>929.072</v>
+      </c>
+      <c r="G64">
+        <v>2713.68</v>
+      </c>
+      <c r="H64">
+        <v>5194.2340000000004</v>
+      </c>
+      <c r="I64">
+        <v>1125.836</v>
+      </c>
+      <c r="J64">
+        <v>396.25900000000001</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1751.181</v>
+      </c>
+      <c r="O64">
+        <v>2579.904</v>
+      </c>
+      <c r="P64">
+        <v>396.25900000000001</v>
+      </c>
+      <c r="Q64">
+        <v>17.693000000000001</v>
+      </c>
+      <c r="R64">
+        <v>42581</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>2614.33</v>
+      </c>
+      <c r="U64">
+        <v>927.71799999999996</v>
+      </c>
+      <c r="V64">
+        <v>310.47399999999999</v>
+      </c>
+      <c r="W64">
+        <v>-53.847999999999999</v>
+      </c>
+      <c r="X64">
+        <v>-225.494</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="AA64">
+        <v>281.90600000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42672</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>244.54599999999999</v>
+      </c>
+      <c r="D65">
+        <v>3086.6869999999999</v>
+      </c>
+      <c r="E65">
+        <v>91.355000000000004</v>
+      </c>
+      <c r="F65">
+        <v>880.59500000000003</v>
+      </c>
+      <c r="G65">
+        <v>2875.3760000000002</v>
+      </c>
+      <c r="H65">
+        <v>5349.8869999999997</v>
+      </c>
+      <c r="I65">
+        <v>1149.136</v>
+      </c>
+      <c r="J65">
+        <v>396.37599999999998</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1887.944</v>
+      </c>
+      <c r="O65">
+        <v>2700.3649999999998</v>
+      </c>
+      <c r="P65">
+        <v>396.37599999999998</v>
+      </c>
+      <c r="Q65">
+        <v>-48.906999999999996</v>
+      </c>
+      <c r="R65">
+        <v>42672</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>2649.5219999999999</v>
+      </c>
+      <c r="U65">
+        <v>878.81100000000004</v>
+      </c>
+      <c r="V65">
+        <v>249.67400000000001</v>
+      </c>
+      <c r="W65">
+        <v>-53.47</v>
+      </c>
+      <c r="X65">
+        <v>-229.60400000000001</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0.4</v>
+      </c>
+      <c r="AA65">
+        <v>244.54599999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42763</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>300.56799999999998</v>
+      </c>
+      <c r="D66">
+        <v>3510.1579999999999</v>
+      </c>
+      <c r="E66">
+        <v>75.153999999999996</v>
+      </c>
+      <c r="F66">
+        <v>1475.7950000000001</v>
+      </c>
+      <c r="G66">
+        <v>2813.049</v>
+      </c>
+      <c r="H66">
+        <v>5309.3509999999997</v>
+      </c>
+      <c r="I66">
+        <v>1021.735</v>
+      </c>
+      <c r="J66">
+        <v>396.49299999999999</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>1752.5060000000001</v>
+      </c>
+      <c r="O66">
+        <v>2561.3339999999998</v>
+      </c>
+      <c r="P66">
+        <v>396.49299999999999</v>
+      </c>
+      <c r="Q66">
+        <v>232.78800000000001</v>
+      </c>
+      <c r="R66">
+        <v>42763</v>
+      </c>
+      <c r="S66">
+        <v>78600</v>
+      </c>
+      <c r="T66">
+        <v>2748.0169999999998</v>
+      </c>
+      <c r="U66">
+        <v>1111.5989999999999</v>
+      </c>
+      <c r="V66">
+        <v>529.62300000000005</v>
+      </c>
+      <c r="W66">
+        <v>-53.085999999999999</v>
+      </c>
+      <c r="X66">
+        <v>-220.10400000000001</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="AA66">
+        <v>300.56799999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42854</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>321.01799999999997</v>
+      </c>
+      <c r="D67">
+        <v>3306.4290000000001</v>
+      </c>
+      <c r="E67">
+        <v>100.84</v>
+      </c>
+      <c r="F67">
+        <v>976.46299999999997</v>
+      </c>
+      <c r="G67">
+        <v>3064.7350000000001</v>
+      </c>
+      <c r="H67">
+        <v>5552.9750000000004</v>
+      </c>
+      <c r="I67">
+        <v>1178.029</v>
+      </c>
+      <c r="J67">
+        <v>396.61099999999999</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>1937.723</v>
+      </c>
+      <c r="O67">
+        <v>2775.2289999999998</v>
+      </c>
+      <c r="P67">
+        <v>396.61099999999999</v>
+      </c>
+      <c r="Q67">
+        <v>132.703</v>
+      </c>
+      <c r="R67">
+        <v>42854</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>2777.7460000000001</v>
+      </c>
+      <c r="U67">
+        <v>1244.2190000000001</v>
+      </c>
+      <c r="V67">
+        <v>520.86099999999999</v>
+      </c>
+      <c r="W67">
+        <v>-62.795000000000002</v>
+      </c>
+      <c r="X67">
+        <v>-312.18700000000001</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>321.01799999999997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42945</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>316.53899999999999</v>
+      </c>
+      <c r="D68">
+        <v>3431.6030000000001</v>
+      </c>
+      <c r="E68">
+        <v>103.35899999999999</v>
+      </c>
+      <c r="F68">
+        <v>1010.6609999999999</v>
+      </c>
+      <c r="G68">
+        <v>3004.4169999999999</v>
+      </c>
+      <c r="H68">
+        <v>5514.4790000000003</v>
+      </c>
+      <c r="I68">
+        <v>1172.847</v>
+      </c>
+      <c r="J68">
+        <v>396.72899999999998</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1828.961</v>
+      </c>
+      <c r="O68">
+        <v>2674.5949999999998</v>
+      </c>
+      <c r="P68">
+        <v>396.72899999999998</v>
+      </c>
+      <c r="Q68">
+        <v>-93.113</v>
+      </c>
+      <c r="R68">
+        <v>42945</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>2839.884</v>
+      </c>
+      <c r="U68">
+        <v>1150.932</v>
+      </c>
+      <c r="V68">
+        <v>277.09800000000001</v>
+      </c>
+      <c r="W68">
+        <v>-62.167000000000002</v>
+      </c>
+      <c r="X68">
+        <v>-276.86599999999999</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>316.53899999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43036</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>274.44900000000001</v>
+      </c>
+      <c r="D69">
+        <v>3328.8939999999998</v>
+      </c>
+      <c r="E69">
+        <v>103.071</v>
+      </c>
+      <c r="F69">
+        <v>959.74599999999998</v>
+      </c>
+      <c r="G69">
+        <v>3235.9450000000002</v>
+      </c>
+      <c r="H69">
+        <v>5766.9780000000001</v>
+      </c>
+      <c r="I69">
+        <v>1289.6199999999999</v>
+      </c>
+      <c r="J69">
+        <v>396.84800000000001</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>2056.2420000000002</v>
+      </c>
+      <c r="O69">
+        <v>2908.4589999999998</v>
+      </c>
+      <c r="P69">
+        <v>396.84800000000001</v>
+      </c>
+      <c r="Q69">
+        <v>-7.8330000000000002</v>
+      </c>
+      <c r="R69">
+        <v>43036</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>2858.5189999999998</v>
+      </c>
+      <c r="U69">
+        <v>1144.1690000000001</v>
+      </c>
+      <c r="V69">
+        <v>367.72699999999998</v>
+      </c>
+      <c r="W69">
+        <v>-61.497</v>
+      </c>
+      <c r="X69">
+        <v>-278.01299999999998</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>274.44900000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43134</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>450.74700000000001</v>
+      </c>
+      <c r="D70">
+        <v>4067.806</v>
+      </c>
+      <c r="E70">
+        <v>87.867999999999995</v>
+      </c>
+      <c r="F70">
+        <v>1677.624</v>
+      </c>
+      <c r="G70">
+        <v>3151.1570000000002</v>
+      </c>
+      <c r="H70">
+        <v>5722.0510000000004</v>
+      </c>
+      <c r="I70">
+        <v>1059.8440000000001</v>
+      </c>
+      <c r="J70">
+        <v>311.99400000000003</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1926.402</v>
+      </c>
+      <c r="O70">
+        <v>2672.7429999999999</v>
+      </c>
+      <c r="P70">
+        <v>396.96699999999998</v>
+      </c>
+      <c r="Q70">
+        <v>145.33500000000001</v>
+      </c>
+      <c r="R70">
+        <v>43134</v>
+      </c>
+      <c r="S70">
+        <v>82700</v>
+      </c>
+      <c r="T70">
+        <v>3049.308</v>
+      </c>
+      <c r="U70">
+        <v>1290.2940000000001</v>
+      </c>
+      <c r="V70">
+        <v>515.65200000000004</v>
+      </c>
+      <c r="W70">
+        <v>-61.067</v>
+      </c>
+      <c r="X70">
+        <v>-282.42500000000001</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="AA70">
+        <v>450.74700000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43225</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>418.25200000000001</v>
+      </c>
+      <c r="D71">
+        <v>3588.6190000000001</v>
+      </c>
+      <c r="E71">
+        <v>109.425</v>
+      </c>
+      <c r="F71">
+        <v>1066.4000000000001</v>
+      </c>
+      <c r="G71">
+        <v>3454.0790000000002</v>
+      </c>
+      <c r="H71">
+        <v>6020.8360000000002</v>
+      </c>
+      <c r="I71">
+        <v>1299.145</v>
+      </c>
+      <c r="J71">
+        <v>312.10500000000002</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>2106.625</v>
+      </c>
+      <c r="O71">
+        <v>2890.5479999999998</v>
+      </c>
+      <c r="P71">
+        <v>397.08600000000001</v>
+      </c>
+      <c r="Q71">
+        <v>11.866</v>
+      </c>
+      <c r="R71">
+        <v>43225</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>3130.288</v>
+      </c>
+      <c r="U71">
+        <v>1302.836</v>
+      </c>
+      <c r="V71">
+        <v>472.05</v>
+      </c>
+      <c r="W71">
+        <v>-85.41</v>
+      </c>
+      <c r="X71">
+        <v>-380.89600000000002</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0.505</v>
+      </c>
+      <c r="AA71">
+        <v>418.25200000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43316</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>389.404</v>
+      </c>
+      <c r="D72">
+        <v>3737.9259999999999</v>
+      </c>
+      <c r="E72">
+        <v>121.508</v>
+      </c>
+      <c r="F72">
+        <v>1070.943</v>
+      </c>
+      <c r="G72">
+        <v>3379.6550000000002</v>
+      </c>
+      <c r="H72">
+        <v>5963.7560000000003</v>
+      </c>
+      <c r="I72">
+        <v>1184.422</v>
+      </c>
+      <c r="J72">
+        <v>312.21699999999998</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>1978.1469999999999</v>
+      </c>
+      <c r="O72">
+        <v>2779.1460000000002</v>
+      </c>
+      <c r="P72">
+        <v>397.20600000000002</v>
+      </c>
+      <c r="Q72">
+        <v>84.393000000000001</v>
+      </c>
+      <c r="R72">
+        <v>43316</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>3184.61</v>
+      </c>
+      <c r="U72">
+        <v>1386.9349999999999</v>
+      </c>
+      <c r="V72">
+        <v>542.13400000000001</v>
+      </c>
+      <c r="W72">
+        <v>-84.561000000000007</v>
+      </c>
+      <c r="X72">
+        <v>-358.899</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>389.404</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43407</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>338.108</v>
+      </c>
+      <c r="D73">
+        <v>3549.6080000000002</v>
+      </c>
+      <c r="E73">
+        <v>117.825</v>
+      </c>
+      <c r="F73">
+        <v>1002.277</v>
+      </c>
+      <c r="G73">
+        <v>3623.3069999999998</v>
+      </c>
+      <c r="H73">
+        <v>6235.7669999999998</v>
+      </c>
+      <c r="I73">
+        <v>1394.029</v>
+      </c>
+      <c r="J73">
+        <v>312.32799999999997</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>2252.2939999999999</v>
+      </c>
+      <c r="O73">
+        <v>3048.6039999999998</v>
+      </c>
+      <c r="P73">
+        <v>397.32499999999999</v>
+      </c>
+      <c r="Q73">
+        <v>-37.942</v>
+      </c>
+      <c r="R73">
+        <v>43407</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>3187.163</v>
+      </c>
+      <c r="U73">
+        <v>1349.1959999999999</v>
+      </c>
+      <c r="V73">
+        <v>435.88799999999998</v>
+      </c>
+      <c r="W73">
+        <v>-83.891999999999996</v>
+      </c>
+      <c r="X73">
+        <v>-359.33300000000003</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="AA73">
+        <v>338.108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43498</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>441.69299999999998</v>
+      </c>
+      <c r="D74">
+        <v>4107.3879999999999</v>
+      </c>
+      <c r="E74">
+        <v>106.911</v>
+      </c>
+      <c r="F74">
+        <v>1687.444</v>
+      </c>
+      <c r="G74">
+        <v>3404.0189999999998</v>
+      </c>
+      <c r="H74">
+        <v>6073.6909999999998</v>
+      </c>
+      <c r="I74">
+        <v>1177.104</v>
+      </c>
+      <c r="J74">
+        <v>312.44</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>2009.4839999999999</v>
+      </c>
+      <c r="O74">
+        <v>2767.9450000000002</v>
+      </c>
+      <c r="P74">
+        <v>312.44</v>
+      </c>
+      <c r="Q74">
+        <v>66.489999999999995</v>
+      </c>
+      <c r="R74">
+        <v>43498</v>
+      </c>
+      <c r="S74">
+        <v>88100</v>
+      </c>
+      <c r="T74">
+        <v>3305.7460000000001</v>
+      </c>
+      <c r="U74">
+        <v>1412.912</v>
+      </c>
+      <c r="V74">
+        <v>616.60500000000002</v>
+      </c>
+      <c r="W74">
+        <v>-83.325999999999993</v>
+      </c>
+      <c r="X74">
+        <v>-432.33300000000003</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>2.75</v>
+      </c>
+      <c r="AA74">
+        <v>441.69299999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43589</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>421.142</v>
+      </c>
+      <c r="D75">
+        <v>3796.6419999999998</v>
+      </c>
+      <c r="E75">
+        <v>121.607</v>
+      </c>
+      <c r="F75">
+        <v>1094.9739999999999</v>
+      </c>
+      <c r="G75">
+        <v>3462.7049999999999</v>
+      </c>
+      <c r="H75">
+        <v>9049.1200000000008</v>
+      </c>
+      <c r="I75">
+        <v>1296.183</v>
+      </c>
+      <c r="J75">
+        <v>312.55200000000002</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>2593.511</v>
+      </c>
+      <c r="O75">
+        <v>5781.5940000000001</v>
+      </c>
+      <c r="P75">
+        <v>3363.982</v>
+      </c>
+      <c r="Q75">
+        <v>-45.561999999999998</v>
+      </c>
+      <c r="R75">
+        <v>43589</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>3267.5259999999998</v>
+      </c>
+      <c r="U75">
+        <v>1366.5920000000001</v>
+      </c>
+      <c r="V75">
+        <v>508.98700000000002</v>
+      </c>
+      <c r="W75">
+        <v>-93.721999999999994</v>
+      </c>
+      <c r="X75">
+        <v>-459.43700000000001</v>
+      </c>
+      <c r="Y75">
+        <v>2514.5300000000002</v>
+      </c>
+      <c r="Z75">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="AA75">
+        <v>421.142</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43680</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>412.721</v>
+      </c>
+      <c r="D76">
+        <v>3979.8690000000001</v>
+      </c>
+      <c r="E76">
+        <v>130.43899999999999</v>
+      </c>
+      <c r="F76">
+        <v>1136.019</v>
+      </c>
+      <c r="G76">
+        <v>3515.9180000000001</v>
+      </c>
+      <c r="H76">
+        <v>9151.9470000000001</v>
+      </c>
+      <c r="I76">
+        <v>1359.829</v>
+      </c>
+      <c r="J76">
+        <v>312.66500000000002</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>2679.4079999999999</v>
+      </c>
+      <c r="O76">
+        <v>5855.683</v>
+      </c>
+      <c r="P76">
+        <v>3358.7359999999999</v>
+      </c>
+      <c r="Q76">
+        <v>10.884</v>
+      </c>
+      <c r="R76">
+        <v>43680</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>3296.2640000000001</v>
+      </c>
+      <c r="U76">
+        <v>1382.0250000000001</v>
+      </c>
+      <c r="V76">
+        <v>574.476</v>
+      </c>
+      <c r="W76">
+        <v>-92.92</v>
+      </c>
+      <c r="X76">
+        <v>-408.90699999999998</v>
+      </c>
+      <c r="Y76">
+        <v>2496.23</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>412.721</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43771</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>370.93200000000002</v>
+      </c>
+      <c r="D77">
+        <v>3849.1170000000002</v>
+      </c>
+      <c r="E77">
+        <v>124.85299999999999</v>
+      </c>
+      <c r="F77">
+        <v>1082.6849999999999</v>
+      </c>
+      <c r="G77">
+        <v>3606.6619999999998</v>
+      </c>
+      <c r="H77">
+        <v>9415.8410000000003</v>
+      </c>
+      <c r="I77">
+        <v>1480.2049999999999</v>
+      </c>
+      <c r="J77">
+        <v>312.77800000000002</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>2858.2379999999998</v>
+      </c>
+      <c r="O77">
+        <v>6139.0619999999999</v>
+      </c>
+      <c r="P77">
+        <v>3473.5830000000001</v>
+      </c>
+      <c r="Q77">
+        <v>-239.874</v>
+      </c>
+      <c r="R77">
+        <v>43771</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>3276.779</v>
+      </c>
+      <c r="U77">
+        <v>1142.7090000000001</v>
+      </c>
+      <c r="V77">
+        <v>327.46699999999998</v>
+      </c>
+      <c r="W77">
+        <v>-91.727999999999994</v>
+      </c>
+      <c r="X77">
+        <v>-416.404</v>
+      </c>
+      <c r="Y77">
+        <v>2601.3719999999998</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>370.93200000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43862</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>456.13299999999998</v>
+      </c>
+      <c r="D78">
+        <v>4413.4449999999997</v>
+      </c>
+      <c r="E78">
+        <v>112.93600000000001</v>
+      </c>
+      <c r="F78">
+        <v>2003.191</v>
+      </c>
+      <c r="G78">
+        <v>3432.828</v>
+      </c>
+      <c r="H78">
+        <v>9348.3670000000002</v>
+      </c>
+      <c r="I78">
+        <v>1296.482</v>
+      </c>
+      <c r="J78">
+        <v>312.89100000000002</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>2701.9340000000002</v>
+      </c>
+      <c r="O78">
+        <v>5989.1180000000004</v>
+      </c>
+      <c r="P78">
+        <v>3487.9</v>
+      </c>
+      <c r="Q78">
+        <v>207.88300000000001</v>
+      </c>
+      <c r="R78">
+        <v>43862</v>
+      </c>
+      <c r="S78">
+        <v>92500</v>
+      </c>
+      <c r="T78">
+        <v>3359.2489999999998</v>
+      </c>
+      <c r="U78">
+        <v>1351.2049999999999</v>
+      </c>
+      <c r="V78">
+        <v>760.61599999999999</v>
+      </c>
+      <c r="W78">
+        <v>-91.423000000000002</v>
+      </c>
+      <c r="X78">
+        <v>-398.50099999999998</v>
+      </c>
+      <c r="Y78">
+        <v>2610.5279999999998</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>456.13299999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>-305.84199999999998</v>
+      </c>
+      <c r="D79">
+        <v>1842.673</v>
+      </c>
+      <c r="E79">
+        <v>49.624000000000002</v>
+      </c>
+      <c r="F79">
+        <v>-47.317999999999998</v>
+      </c>
+      <c r="G79">
+        <v>4587.915</v>
+      </c>
+      <c r="H79">
+        <v>10728.046</v>
+      </c>
+      <c r="I79">
+        <v>706.26700000000005</v>
+      </c>
+      <c r="J79">
+        <v>2285.614</v>
+      </c>
+      <c r="K79">
+        <v>805</v>
+      </c>
+      <c r="L79">
+        <v>-0.61499999999999999</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>2623.6170000000002</v>
+      </c>
+      <c r="O79">
+        <v>7910.6540000000005</v>
+      </c>
+      <c r="P79">
+        <v>6293.2150000000001</v>
+      </c>
+      <c r="Q79">
+        <v>1318.9559999999999</v>
+      </c>
+      <c r="R79">
+        <v>43953</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>2817.3919999999998</v>
+      </c>
+      <c r="U79">
+        <v>2669.5349999999999</v>
+      </c>
+      <c r="V79">
+        <v>-1058.442</v>
+      </c>
+      <c r="W79">
+        <v>-101.414</v>
+      </c>
+      <c r="X79">
+        <v>2517.127</v>
+      </c>
+      <c r="Y79">
+        <v>2631.7689999999998</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>-305.84199999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44044</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>22.047000000000001</v>
+      </c>
+      <c r="D80">
+        <v>2684.712</v>
+      </c>
+      <c r="E80">
+        <v>162.72300000000001</v>
+      </c>
+      <c r="F80">
+        <v>604.59199999999998</v>
+      </c>
+      <c r="G80">
+        <v>5347.3609999999999</v>
+      </c>
+      <c r="H80">
+        <v>11322.245000000001</v>
+      </c>
+      <c r="I80">
+        <v>1009.704</v>
+      </c>
+      <c r="J80">
+        <v>2286.2950000000001</v>
+      </c>
+      <c r="K80">
+        <v>802.50699999999995</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>3153.0720000000001</v>
+      </c>
+      <c r="O80">
+        <v>8455.0460000000003</v>
+      </c>
+      <c r="P80">
+        <v>6269.3329999999996</v>
+      </c>
+      <c r="Q80">
+        <v>1123.549</v>
+      </c>
+      <c r="R80">
+        <v>44044</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>2867.1990000000001</v>
+      </c>
+      <c r="U80">
+        <v>3793.0430000000001</v>
+      </c>
+      <c r="V80">
+        <v>1230.8630000000001</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>3.004</v>
+      </c>
+      <c r="Y80">
+        <v>2601.2539999999999</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>22.047000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44135</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
         <v>131.197</v>
       </c>
-      <c r="D42">
+      <c r="D81">
         <v>3754.509</v>
       </c>
-      <c r="E42">
+      <c r="E81">
         <v>122.654</v>
       </c>
-      <c r="F42">
+      <c r="F81">
         <v>1043.0899999999999</v>
       </c>
-      <c r="G42">
+      <c r="G81">
         <v>6516.567</v>
       </c>
-      <c r="H42">
+      <c r="H81">
         <v>12570.665999999999</v>
       </c>
-      <c r="I42">
+      <c r="I81">
         <v>2426.39</v>
       </c>
-      <c r="J42">
+      <c r="J81">
         <v>2512.0369999999998</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
         <v>3941.6289999999999</v>
       </c>
-      <c r="O42">
+      <c r="O81">
         <v>9551.6290000000008</v>
       </c>
-      <c r="P42">
+      <c r="P81">
         <v>5774.2979999999998</v>
       </c>
-      <c r="Q42">
+      <c r="Q81">
         <v>697.92700000000002</v>
       </c>
-      <c r="R42">
+      <c r="R81">
         <v>44135</v>
       </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
         <v>3019.0369999999998</v>
       </c>
-      <c r="U42">
+      <c r="U81">
         <v>4416.1239999999998</v>
       </c>
-      <c r="V42">
+      <c r="V81">
         <v>1610.702</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
         <v>-823.27700000000004</v>
       </c>
-      <c r="Y42">
+      <c r="Y81">
         <v>2672.1390000000001</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
         <v>131.197</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44226</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
+        <v>237.98</v>
+      </c>
+      <c r="D82">
+        <v>4249.6710000000003</v>
+      </c>
+      <c r="E82">
+        <v>115.06699999999999</v>
+      </c>
+      <c r="F82">
+        <v>1092.627</v>
+      </c>
+      <c r="G82">
+        <v>6692.491</v>
+      </c>
+      <c r="H82">
+        <v>12717.867</v>
+      </c>
+      <c r="I82">
+        <v>2256.9279999999999</v>
+      </c>
+      <c r="J82">
+        <v>2448.1750000000002</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>3967.0329999999999</v>
+      </c>
+      <c r="O82">
+        <v>9427.2270000000008</v>
+      </c>
+      <c r="P82">
+        <v>5732.799</v>
+      </c>
+      <c r="Q82">
+        <v>401.92700000000002</v>
+      </c>
+      <c r="R82">
+        <v>44226</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>3290.64</v>
+      </c>
+      <c r="U82">
+        <v>4819.2929999999997</v>
+      </c>
+      <c r="V82">
+        <v>462.81</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <v>5.0049999999999999</v>
+      </c>
+      <c r="Y82">
+        <v>2621.5940000000001</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
+        <v>237.98</v>
       </c>
     </row>
   </sheetData>
